--- a/Översikt LAHOLM.xlsx
+++ b/Översikt LAHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>43440</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43353</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43423</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>43903</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44624</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44726</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45159</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>43325</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43335</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43384</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43385</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>43385</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43385</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43404</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43404</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43411</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43430</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43440</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43447</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>43521</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43521</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43525</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43539</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43543</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43565</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>43570</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>43578</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>43578</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43578</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43587</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43592</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43598</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43613</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43620</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43627</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43661</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43682</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43685</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43685</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43703</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43705</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43718</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43720</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43752</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43754</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43760</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43762</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43781</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43781</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43783</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43817</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43817</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43817</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43840</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43857</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43858</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43860</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43860</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43861</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43873</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>43878</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>43879</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43879</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>43882</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43894</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43896</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43912</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43913</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43918</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43950</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43951</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43956</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43959</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43965</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43965</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43971</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43985</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43990</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44005</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44007</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44012</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44012</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44014</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44022</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44022</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44022</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44047</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44050</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44089</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44102</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44119</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44127</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44127</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44144</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44144</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44158</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44168</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44175</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44175</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44175</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44180</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44200</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44200</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44224</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44225</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44225</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44226</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44228</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44235</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44245</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>44245</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>44256</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44273</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44273</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44280</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44312</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44319</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44333</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44337</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44337</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44343</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44343</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44348</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44349</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44434</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44446</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44469</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>44469</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>44483</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>44483</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44483</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>44501</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>44501</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>44517</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>44518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>44525</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44553</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>44553</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>44575</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>44596</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>44600</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>44600</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>44600</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44600</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>44600</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>44624</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>44677</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>44678</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44698</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44698</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44735</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44739</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44746</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44771</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44774</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44774</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44796</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44802</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44810</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44846</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>44855</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>44869</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44869</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44872</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>44873</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44875</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44879</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>44883</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>44886</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44895</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44909</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44928</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44928</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44930</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44930</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44942</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44943</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44943</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44943</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44949</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44949</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44964</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44978</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>45002</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>45002</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>45006</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>45019</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>45019</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>45020</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>45020</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>45020</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>45022</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>45028</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>45028</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>45028</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>45035</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>45036</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16485,7 +16485,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>45057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>45062</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45089</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45089</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45089</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45089</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>45089</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>45096</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>45096</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>45097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>45098</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>45098</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>45106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>45112</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>45117</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45121</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>45123</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>45126</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>45131</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>45132</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>45132</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>45132</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45135</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>45146</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45146</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>45146</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18282,7 +18282,7 @@
         <v>45152</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>45155</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18396,7 +18396,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>45159</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt LAHOLM.xlsx
+++ b/Översikt LAHOLM.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y307"/>
+  <dimension ref="A1:Y308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43440</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43353</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43423</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>43903</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44624</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44726</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45159</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>43325</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43335</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43384</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43385</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>43385</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43385</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43404</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43404</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43411</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43430</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43440</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43447</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>43521</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43521</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43525</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43539</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43543</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43565</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>43570</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>43578</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>43578</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43578</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43587</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43592</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43598</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43613</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43620</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43627</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43661</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43682</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43685</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43685</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43703</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43705</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43718</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43720</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43752</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43754</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43760</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43762</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43781</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43781</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43783</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43817</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43817</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43817</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43840</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43857</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43858</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43860</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43860</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43861</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43873</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>43878</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>43879</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43879</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>43882</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43894</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43896</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43912</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43913</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43918</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43950</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43951</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43956</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43959</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43965</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43965</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43971</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43985</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43990</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44005</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44007</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44012</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44012</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44014</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44022</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44022</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44022</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44047</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44050</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44089</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44102</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44119</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44127</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44127</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44144</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44144</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44158</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44168</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44175</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44175</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44175</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44180</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44200</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44200</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44224</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44225</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44225</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44226</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44228</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44235</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44245</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>44245</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>44256</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44273</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44273</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44280</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44312</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44319</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44333</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44337</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44337</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44343</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44343</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44348</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44349</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44434</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44446</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44469</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>44469</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>44483</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>44483</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44483</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>44501</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>44501</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>44517</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>44518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>44525</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44553</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>44553</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>44575</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>44596</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>44600</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>44600</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>44600</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44600</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>44600</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>44624</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>44677</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>44678</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44698</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44698</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44735</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44739</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44746</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44771</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44774</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44774</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44796</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44802</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44810</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44846</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>44855</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>44869</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44869</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44872</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>44873</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44875</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44879</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>44883</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>44886</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44895</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44909</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44928</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44928</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44930</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44930</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44942</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44943</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44943</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44943</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44949</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44949</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44964</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44978</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>45002</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>45002</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>45006</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>45019</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>45019</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>45020</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>45020</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>45020</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>45022</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>45028</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>45028</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>45028</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>45035</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>45036</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16485,7 +16485,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>45057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>45062</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45089</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45089</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45089</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45089</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>45089</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>45096</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>45096</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>45097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>45098</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>45098</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>45106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>45112</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>45117</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45121</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>45123</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>45126</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>45131</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>45132</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>45132</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>45132</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45135</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>45146</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45146</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>45146</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18282,7 +18282,7 @@
         <v>45152</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>45155</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18396,7 +18396,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18443,7 +18443,7 @@
       </c>
       <c r="R306" s="2" t="inlineStr"/>
     </row>
-    <row r="307">
+    <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
           <t>A 37667-2023</t>
@@ -18453,7 +18453,7 @@
         <v>45159</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18499,6 +18499,63 @@
         <v>0</v>
       </c>
       <c r="R307" s="2" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>A 41289-2023</t>
+        </is>
+      </c>
+      <c r="B308" s="1" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C308" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>LAHOLM</t>
+        </is>
+      </c>
+      <c r="G308" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="n">
+        <v>0</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0</v>
+      </c>
+      <c r="L308" t="n">
+        <v>0</v>
+      </c>
+      <c r="M308" t="n">
+        <v>0</v>
+      </c>
+      <c r="N308" t="n">
+        <v>0</v>
+      </c>
+      <c r="O308" t="n">
+        <v>0</v>
+      </c>
+      <c r="P308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>0</v>
+      </c>
+      <c r="R308" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt LAHOLM.xlsx
+++ b/Översikt LAHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>43440</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43353</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43423</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>43903</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44624</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44726</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45159</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>43325</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43335</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43384</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43385</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>43385</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43385</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43404</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43404</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43411</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43430</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43440</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43447</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>43521</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43521</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43525</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43539</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43543</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43565</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>43570</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>43578</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>43578</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43578</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43587</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43592</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43598</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43613</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43620</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43627</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43661</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43682</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43685</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43685</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43703</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43705</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43718</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43720</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43752</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43754</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43760</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43762</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43781</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43781</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43783</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43817</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43817</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43817</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43840</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43857</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43858</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43860</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43860</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43861</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43873</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>43878</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>43879</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43879</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>43882</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43894</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43896</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43912</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43913</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43918</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43950</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43951</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43956</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43959</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43965</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43965</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43971</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43985</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43990</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44005</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44007</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44012</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44012</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44014</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44022</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44022</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44022</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44047</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44050</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44089</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44102</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44119</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44127</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44127</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44144</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44144</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44158</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44168</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44175</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44175</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44175</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44180</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44200</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44200</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44224</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44225</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44225</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44226</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44228</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44235</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44245</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>44245</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>44256</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44273</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44273</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44280</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44312</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44319</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44333</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44337</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44337</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44343</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44343</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44348</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44349</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44434</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44446</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44469</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>44469</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>44483</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>44483</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44483</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>44501</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>44501</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>44517</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>44518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>44525</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44553</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>44553</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>44575</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>44596</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>44600</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>44600</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>44600</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44600</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>44600</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>44624</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>44677</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>44678</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44698</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44698</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44735</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44739</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44746</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44771</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44774</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44774</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44796</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44802</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44810</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44846</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>44855</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>44869</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44869</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44872</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>44873</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44875</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44879</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>44883</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>44886</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44895</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44909</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44928</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44928</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44930</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44930</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44942</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44943</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44943</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44943</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44949</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44949</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44964</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44978</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>45002</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>45002</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>45006</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>45019</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>45019</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>45020</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>45020</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>45020</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>45022</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>45028</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>45028</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>45028</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>45035</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>45036</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16485,7 +16485,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>45057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>45062</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45089</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45089</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45089</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45089</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>45089</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>45096</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>45096</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>45097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>45098</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>45098</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>45106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>45112</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>45117</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45121</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>45123</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>45126</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>45131</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>45132</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>45132</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>45132</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45135</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>45146</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45146</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>45146</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18282,7 +18282,7 @@
         <v>45152</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>45155</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18396,7 +18396,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>45159</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18510,7 +18510,7 @@
         <v>45174</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>

--- a/Översikt LAHOLM.xlsx
+++ b/Översikt LAHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>43440</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43353</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43423</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>43903</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44624</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44726</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45159</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>43325</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43335</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43384</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43385</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>43385</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43385</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43404</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43404</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43411</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43430</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43440</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43447</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>43521</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43521</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43525</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43539</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43543</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43565</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>43570</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>43578</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>43578</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43578</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43587</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43592</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43598</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43613</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43620</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43627</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43661</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43682</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43685</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43685</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43703</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43705</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43718</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43720</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43752</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43754</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43760</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43762</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43781</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43781</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43783</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43817</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43817</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43817</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43840</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43857</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43858</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43860</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43860</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43861</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43873</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>43878</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>43879</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43879</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>43882</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43894</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43896</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43912</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43913</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43918</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43950</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43951</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43956</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43959</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43965</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43965</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43971</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43985</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43990</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44005</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44007</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44012</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44012</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44014</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44022</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44022</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44022</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44047</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44050</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44089</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44102</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44119</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44127</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44127</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44144</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44144</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44158</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44168</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44175</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44175</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44175</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44180</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44200</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44200</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44224</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44225</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44225</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44226</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44228</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44235</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44245</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>44245</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>44256</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44273</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44273</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44280</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44312</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44319</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44333</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44337</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44337</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44343</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44343</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44348</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44349</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44434</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44446</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44469</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>44469</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>44483</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>44483</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44483</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>44501</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>44501</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>44517</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>44518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>44525</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44553</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>44553</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>44575</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>44596</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>44600</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>44600</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>44600</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44600</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>44600</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>44624</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>44677</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>44678</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44698</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44698</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44735</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44739</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44746</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44771</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44774</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44774</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44796</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44802</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44810</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44846</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>44855</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>44869</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44869</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44872</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>44873</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44875</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44879</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>44883</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>44886</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44895</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44909</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44928</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44928</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44930</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44930</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44942</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44943</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44943</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44943</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44949</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44949</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44964</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44978</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>45002</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>45002</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>45006</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>45019</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>45019</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>45020</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>45020</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>45020</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>45022</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>45028</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>45028</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>45028</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>45035</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>45036</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16485,7 +16485,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>45057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>45062</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45089</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45089</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45089</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45089</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>45089</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>45096</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>45096</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>45097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>45098</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>45098</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>45106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>45112</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>45117</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45121</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>45123</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>45126</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>45131</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>45132</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>45132</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>45132</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45135</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>45146</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45146</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>45146</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18282,7 +18282,7 @@
         <v>45152</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>45155</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18396,7 +18396,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>45159</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18510,7 +18510,7 @@
         <v>45174</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>

--- a/Översikt LAHOLM.xlsx
+++ b/Översikt LAHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>43440</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43353</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43423</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>43903</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44624</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44726</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45159</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>43325</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43335</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43384</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43385</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>43385</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43385</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43404</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43404</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43411</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43430</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43440</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43447</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>43521</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43521</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43525</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43539</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43543</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43565</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>43570</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>43578</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>43578</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43578</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43587</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43592</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43598</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43613</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43620</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43627</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43661</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43682</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43685</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43685</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43703</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43705</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43718</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43720</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43752</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43754</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43760</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43762</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43781</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43781</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43783</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43817</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43817</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43817</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43840</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43857</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43858</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43860</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43860</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43861</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43873</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>43878</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>43879</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43879</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>43882</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43894</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43896</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43912</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43913</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43918</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43950</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43951</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43956</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43959</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43965</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43965</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43971</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43985</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43990</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44005</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44007</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44012</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44012</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44014</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44022</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44022</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44022</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44047</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44050</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44089</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44102</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44119</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44127</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44127</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44144</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44144</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44158</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44168</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44175</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44175</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44175</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44180</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44200</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44200</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44224</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44225</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44225</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44226</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44228</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44235</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44245</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>44245</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>44256</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44273</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44273</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44280</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44312</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44319</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44333</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44337</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44337</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44343</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44343</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44348</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44349</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44434</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44446</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44469</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>44469</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>44483</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>44483</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44483</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>44501</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>44501</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>44517</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>44518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>44525</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44553</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>44553</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>44575</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>44596</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>44600</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>44600</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>44600</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44600</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>44600</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>44624</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>44677</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>44678</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44698</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44698</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44735</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44739</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44746</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44771</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44774</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44774</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44796</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44802</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44810</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44846</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>44855</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>44869</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44869</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44872</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>44873</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44875</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44879</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>44883</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>44886</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44895</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44909</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44928</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44928</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44930</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44930</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44942</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44943</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44943</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44943</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44949</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44949</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44964</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44978</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>45002</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>45002</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>45006</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>45019</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>45019</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>45020</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>45020</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>45020</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>45022</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>45028</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>45028</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>45028</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>45035</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>45036</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16485,7 +16485,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>45057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>45062</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45089</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45089</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45089</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45089</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>45089</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>45096</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>45096</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>45097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>45098</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>45098</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>45106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>45112</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>45117</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45121</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>45123</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>45126</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>45131</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>45132</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>45132</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>45132</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45135</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>45146</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45146</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>45146</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18282,7 +18282,7 @@
         <v>45152</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>45155</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18396,7 +18396,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>45159</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18510,7 +18510,7 @@
         <v>45174</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>

--- a/Översikt LAHOLM.xlsx
+++ b/Översikt LAHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>43440</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43353</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43423</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>43903</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44624</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44726</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45159</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>43325</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43335</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43384</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43385</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>43385</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43385</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43404</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43404</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43411</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43430</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43440</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43447</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>43521</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43521</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43525</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43539</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43543</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43565</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>43570</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>43578</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>43578</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43578</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43587</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43592</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43598</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43613</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43620</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43627</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43661</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43682</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43685</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43685</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43703</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43705</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43718</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43720</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43752</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43754</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43760</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43762</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43781</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43781</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43783</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43817</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43817</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43817</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43840</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43857</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43858</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43860</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43860</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43861</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43873</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>43878</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>43879</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43879</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>43882</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43894</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43896</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43912</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43913</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43918</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43950</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43951</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43956</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43959</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43965</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43965</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43971</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43985</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43990</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44005</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44007</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44012</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44012</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44014</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44022</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44022</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44022</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44047</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44050</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44089</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44102</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44119</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44127</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44127</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44144</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44144</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44158</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44168</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44175</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44175</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44175</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44180</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44200</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44200</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44224</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44225</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44225</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44226</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44228</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44235</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44245</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>44245</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>44256</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44273</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44273</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44280</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44312</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44319</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44333</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44337</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44337</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44343</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44343</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44348</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44349</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44434</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44446</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44469</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>44469</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>44483</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>44483</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44483</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>44501</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>44501</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>44517</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>44518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>44525</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44553</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>44553</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>44575</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>44596</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>44600</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>44600</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>44600</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44600</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>44600</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>44624</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>44677</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>44678</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44698</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44698</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44735</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44739</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44746</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44771</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44774</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44774</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44796</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44802</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44810</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44846</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>44855</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>44869</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44869</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44872</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>44873</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44875</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44879</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>44883</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>44886</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44895</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44909</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44928</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44928</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44930</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44930</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44942</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44943</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44943</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44943</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44949</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44949</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44964</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44978</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>45002</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>45002</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>45006</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>45019</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>45019</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>45020</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>45020</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>45020</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>45022</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>45028</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>45028</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>45028</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>45035</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>45036</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16485,7 +16485,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>45057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>45062</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45089</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45089</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45089</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45089</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>45089</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>45096</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>45096</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>45097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>45098</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>45098</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>45106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>45112</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>45117</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45121</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>45123</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>45126</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>45131</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>45132</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>45132</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>45132</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45135</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>45146</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45146</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>45146</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18282,7 +18282,7 @@
         <v>45152</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>45155</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18396,7 +18396,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>45159</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18510,7 +18510,7 @@
         <v>45174</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>

--- a/Översikt LAHOLM.xlsx
+++ b/Översikt LAHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>43440</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43353</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43423</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>43903</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44624</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44726</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45159</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>43325</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43335</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43384</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43385</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>43385</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43385</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43404</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43404</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43411</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43430</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43440</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43447</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>43521</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43521</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43525</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43539</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43543</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43565</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>43570</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>43578</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>43578</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43578</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43587</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43592</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43598</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43613</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43620</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43627</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43661</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43682</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43685</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43685</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43703</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43705</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43718</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43720</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43752</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43754</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43760</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43762</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43781</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43781</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43783</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43817</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43817</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43817</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43840</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43857</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43858</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43860</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43860</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43861</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43873</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>43878</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>43879</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43879</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>43882</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43894</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43896</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43912</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43913</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43918</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43950</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43951</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43956</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43959</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43965</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43965</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43971</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43985</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43990</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44005</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44007</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44012</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44012</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44014</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44022</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44022</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44022</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44047</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44050</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44089</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44102</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44119</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44127</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44127</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44144</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44144</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44158</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44168</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44175</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44175</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44175</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44180</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44200</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44200</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44224</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44225</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44225</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44226</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44228</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44235</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44245</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>44245</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>44256</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44273</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44273</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44280</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44312</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44319</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44333</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44337</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44337</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44343</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44343</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44348</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44349</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44434</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44446</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44469</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>44469</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>44483</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>44483</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44483</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>44501</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>44501</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>44517</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>44518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>44525</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44553</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>44553</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>44575</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>44596</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>44600</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>44600</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>44600</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44600</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>44600</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>44624</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>44677</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>44678</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44698</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44698</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44735</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44739</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44746</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44771</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44774</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44774</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44796</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44802</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44810</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44846</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>44855</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>44869</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44869</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44872</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>44873</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44875</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44879</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>44883</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>44886</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44895</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44909</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44928</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44928</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44930</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44930</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44942</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44943</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44943</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44943</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44949</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44949</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44964</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44978</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>45002</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>45002</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>45006</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>45019</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>45019</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>45020</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>45020</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>45020</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>45022</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>45028</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>45028</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>45028</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>45035</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>45036</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16485,7 +16485,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>45057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>45062</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45089</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45089</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45089</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45089</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>45089</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>45096</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>45096</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>45097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>45098</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>45098</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>45106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>45112</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>45117</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45121</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>45123</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>45126</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>45131</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>45132</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>45132</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>45132</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45135</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>45146</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45146</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>45146</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18282,7 +18282,7 @@
         <v>45152</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>45155</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18396,7 +18396,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>45159</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18510,7 +18510,7 @@
         <v>45174</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>

--- a/Översikt LAHOLM.xlsx
+++ b/Översikt LAHOLM.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y308"/>
+  <dimension ref="A1:Y310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43440</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43353</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43423</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>43903</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44624</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44726</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45159</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>43325</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43335</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43384</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43385</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>43385</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43385</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43404</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43404</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43411</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43430</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43440</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43447</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>43521</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43521</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43525</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43539</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43543</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43565</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>43570</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>43578</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>43578</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43578</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43587</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43592</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43598</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43613</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43620</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43627</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43661</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43682</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43685</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43685</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43703</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43705</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43718</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43720</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43752</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43754</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43760</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43762</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43781</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43781</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43783</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43817</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43817</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43817</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43840</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43857</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43858</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43860</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43860</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43861</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43873</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>43878</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>43879</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43879</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>43882</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43894</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43896</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43912</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43913</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43918</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43950</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43951</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43956</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43959</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43965</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43965</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43971</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43985</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43990</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44005</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44007</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44012</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44012</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44014</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44022</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44022</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44022</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44047</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44050</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44089</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44102</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44119</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44127</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44127</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44144</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44144</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44158</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44168</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44175</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44175</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44175</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44180</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44200</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44200</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44224</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44225</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44225</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44226</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44228</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44235</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44245</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>44245</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>44256</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44273</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44273</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44280</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44312</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44319</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44333</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44337</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44337</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44343</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44343</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44348</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44349</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44434</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44446</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44469</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>44469</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>44483</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>44483</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44483</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>44501</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>44501</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>44517</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>44518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>44525</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44553</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>44553</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>44575</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>44596</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>44600</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>44600</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>44600</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44600</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>44600</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>44624</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>44677</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>44678</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44698</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44698</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44735</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44739</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44746</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44771</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44774</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44774</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44796</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44802</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44810</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44846</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>44855</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>44869</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44869</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44872</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>44873</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44875</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44879</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>44883</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>44886</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44895</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44909</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44928</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44928</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44930</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44930</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44942</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44943</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44943</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44943</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44949</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44949</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44964</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44978</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>45002</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>45002</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>45006</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>45019</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>45019</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>45020</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>45020</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>45020</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>45022</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>45028</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>45028</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>45028</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>45035</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>45036</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16485,7 +16485,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>45057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>45062</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45089</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45089</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45089</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45089</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>45089</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>45096</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>45096</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>45097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>45098</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>45098</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>45106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>45112</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>45117</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45121</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>45123</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>45126</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>45131</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>45132</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>45132</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>45132</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45135</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>45146</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45146</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>45146</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18282,7 +18282,7 @@
         <v>45152</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>45155</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18396,7 +18396,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>45159</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
       </c>
       <c r="R307" s="2" t="inlineStr"/>
     </row>
-    <row r="308">
+    <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
           <t>A 41289-2023</t>
@@ -18510,7 +18510,7 @@
         <v>45174</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18556,6 +18556,125 @@
         <v>0</v>
       </c>
       <c r="R308" s="2" t="inlineStr"/>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>A 42455-2023</t>
+        </is>
+      </c>
+      <c r="B309" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C309" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>LAHOLM</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G309" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I309" t="n">
+        <v>0</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0</v>
+      </c>
+      <c r="L309" t="n">
+        <v>0</v>
+      </c>
+      <c r="M309" t="n">
+        <v>0</v>
+      </c>
+      <c r="N309" t="n">
+        <v>0</v>
+      </c>
+      <c r="O309" t="n">
+        <v>0</v>
+      </c>
+      <c r="P309" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q309" t="n">
+        <v>0</v>
+      </c>
+      <c r="R309" s="2" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>A 42605-2023</t>
+        </is>
+      </c>
+      <c r="B310" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C310" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>LAHOLM</t>
+        </is>
+      </c>
+      <c r="G310" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="n">
+        <v>0</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0</v>
+      </c>
+      <c r="L310" t="n">
+        <v>0</v>
+      </c>
+      <c r="M310" t="n">
+        <v>0</v>
+      </c>
+      <c r="N310" t="n">
+        <v>0</v>
+      </c>
+      <c r="O310" t="n">
+        <v>0</v>
+      </c>
+      <c r="P310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>0</v>
+      </c>
+      <c r="R310" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt LAHOLM.xlsx
+++ b/Översikt LAHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>43440</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43353</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43423</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>43903</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44624</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44726</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45159</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>43325</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43335</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43384</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43385</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>43385</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43385</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43404</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43404</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43411</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43430</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43440</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43447</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>43521</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43521</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43525</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43539</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43543</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43565</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>43570</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>43578</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>43578</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43578</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43587</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43592</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43598</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43613</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43620</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43627</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43661</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43682</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43685</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43685</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43703</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43705</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43718</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43720</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43752</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43754</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43760</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43762</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43781</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43781</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43783</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43817</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43817</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43817</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43840</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43857</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43858</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43860</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43860</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43861</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43873</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>43878</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>43879</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43879</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>43882</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43894</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43896</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43912</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43913</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43918</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43950</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43951</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43956</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43959</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43965</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43965</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43971</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43985</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43990</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44005</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44007</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44012</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44012</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44014</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44022</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44022</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44022</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44047</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44050</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44089</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44102</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44119</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44127</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44127</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44144</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44144</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44158</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44168</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44175</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44175</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44175</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44180</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44200</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44200</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44224</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44225</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44225</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44226</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44228</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44235</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44245</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>44245</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>44256</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44273</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44273</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44280</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44312</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44319</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44333</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44337</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44337</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44343</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44343</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44348</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44349</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44434</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44446</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44469</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>44469</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>44483</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>44483</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44483</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>44501</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>44501</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>44517</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>44518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>44525</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44553</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>44553</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>44575</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>44596</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>44600</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>44600</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>44600</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44600</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>44600</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>44624</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>44677</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>44678</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44698</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44698</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44735</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44739</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44746</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44771</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44774</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44774</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44796</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44802</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44810</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44846</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>44855</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>44869</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44869</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44872</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>44873</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44875</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44879</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>44883</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>44886</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44895</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44909</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44928</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44928</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44930</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44930</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44942</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44943</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44943</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44943</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44949</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44949</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44964</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44978</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>45002</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>45002</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>45006</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>45019</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>45019</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>45020</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>45020</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>45020</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>45022</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>45028</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>45028</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>45028</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>45035</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>45036</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16485,7 +16485,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>45057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>45062</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45089</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45089</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45089</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45089</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>45089</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>45096</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>45096</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>45097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>45098</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>45098</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>45106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>45112</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>45117</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45121</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>45123</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>45126</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>45131</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>45132</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>45132</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>45132</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45135</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>45146</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45146</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>45146</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18282,7 +18282,7 @@
         <v>45152</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>45155</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18396,7 +18396,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>45159</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18510,7 +18510,7 @@
         <v>45174</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18567,7 +18567,7 @@
         <v>45180</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18629,7 +18629,7 @@
         <v>45181</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>

--- a/Översikt LAHOLM.xlsx
+++ b/Översikt LAHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>43440</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -624,27 +624,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/artfynd/A 69549-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/artfynd/A 69549-2018.xlsx", "A 69549-2018")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/kartor/A 69549-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/kartor/A 69549-2018.png", "A 69549-2018")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomål/A 69549-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomål/A 69549-2018.docx", "A 69549-2018")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomålsmail/A 69549-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomålsmail/A 69549-2018.docx", "A 69549-2018")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsyn/A 69549-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsyn/A 69549-2018.docx", "A 69549-2018")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsynsmail/A 69549-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsynsmail/A 69549-2018.docx", "A 69549-2018")</f>
         <v/>
       </c>
     </row>
@@ -658,7 +658,7 @@
         <v>43353</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,27 +714,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/artfynd/A 42997-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/artfynd/A 42997-2018.xlsx", "A 42997-2018")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/kartor/A 42997-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/kartor/A 42997-2018.png", "A 42997-2018")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomål/A 42997-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomål/A 42997-2018.docx", "A 42997-2018")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomålsmail/A 42997-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomålsmail/A 42997-2018.docx", "A 42997-2018")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsyn/A 42997-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsyn/A 42997-2018.docx", "A 42997-2018")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsynsmail/A 42997-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsynsmail/A 42997-2018.docx", "A 42997-2018")</f>
         <v/>
       </c>
     </row>
@@ -748,7 +748,7 @@
         <v>43423</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -799,27 +799,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/artfynd/A 61195-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/artfynd/A 61195-2018.xlsx", "A 61195-2018")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/kartor/A 61195-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/kartor/A 61195-2018.png", "A 61195-2018")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomål/A 61195-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomål/A 61195-2018.docx", "A 61195-2018")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomålsmail/A 61195-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomålsmail/A 61195-2018.docx", "A 61195-2018")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsyn/A 61195-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsyn/A 61195-2018.docx", "A 61195-2018")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsynsmail/A 61195-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsynsmail/A 61195-2018.docx", "A 61195-2018")</f>
         <v/>
       </c>
     </row>
@@ -833,7 +833,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -884,27 +884,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/artfynd/A 67356-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/artfynd/A 67356-2018.xlsx", "A 67356-2018")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/kartor/A 67356-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/kartor/A 67356-2018.png", "A 67356-2018")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomål/A 67356-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomål/A 67356-2018.docx", "A 67356-2018")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomålsmail/A 67356-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomålsmail/A 67356-2018.docx", "A 67356-2018")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsyn/A 67356-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsyn/A 67356-2018.docx", "A 67356-2018")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsynsmail/A 67356-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsynsmail/A 67356-2018.docx", "A 67356-2018")</f>
         <v/>
       </c>
     </row>
@@ -918,7 +918,7 @@
         <v>43440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -969,27 +969,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/artfynd/A 69644-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/artfynd/A 69644-2018.xlsx", "A 69644-2018")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/kartor/A 69644-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/kartor/A 69644-2018.png", "A 69644-2018")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomål/A 69644-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomål/A 69644-2018.docx", "A 69644-2018")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomålsmail/A 69644-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomålsmail/A 69644-2018.docx", "A 69644-2018")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsyn/A 69644-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsyn/A 69644-2018.docx", "A 69644-2018")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsynsmail/A 69644-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsynsmail/A 69644-2018.docx", "A 69644-2018")</f>
         <v/>
       </c>
     </row>
@@ -1003,7 +1003,7 @@
         <v>43903</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1054,27 +1054,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/artfynd/A 14863-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/artfynd/A 14863-2020.xlsx", "A 14863-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/kartor/A 14863-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/kartor/A 14863-2020.png", "A 14863-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomål/A 14863-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomål/A 14863-2020.docx", "A 14863-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomålsmail/A 14863-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomålsmail/A 14863-2020.docx", "A 14863-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsyn/A 14863-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsyn/A 14863-2020.docx", "A 14863-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsynsmail/A 14863-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsynsmail/A 14863-2020.docx", "A 14863-2020")</f>
         <v/>
       </c>
     </row>
@@ -1088,7 +1088,7 @@
         <v>44624</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1144,27 +1144,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/artfynd/A 10567-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/artfynd/A 10567-2022.xlsx", "A 10567-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/kartor/A 10567-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/kartor/A 10567-2022.png", "A 10567-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomål/A 10567-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomål/A 10567-2022.docx", "A 10567-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomålsmail/A 10567-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomålsmail/A 10567-2022.docx", "A 10567-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsyn/A 10567-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsyn/A 10567-2022.docx", "A 10567-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsynsmail/A 10567-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsynsmail/A 10567-2022.docx", "A 10567-2022")</f>
         <v/>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
         <v>44726</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1229,27 +1229,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/artfynd/A 24399-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/artfynd/A 24399-2022.xlsx", "A 24399-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/kartor/A 24399-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/kartor/A 24399-2022.png", "A 24399-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomål/A 24399-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomål/A 24399-2022.docx", "A 24399-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomålsmail/A 24399-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomålsmail/A 24399-2022.docx", "A 24399-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsyn/A 24399-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsyn/A 24399-2022.docx", "A 24399-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsynsmail/A 24399-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsynsmail/A 24399-2022.docx", "A 24399-2022")</f>
         <v/>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1314,27 +1314,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/artfynd/A 42421-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/artfynd/A 42421-2022.xlsx", "A 42421-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/kartor/A 42421-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/kartor/A 42421-2022.png", "A 42421-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomål/A 42421-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomål/A 42421-2022.docx", "A 42421-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomålsmail/A 42421-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomålsmail/A 42421-2022.docx", "A 42421-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsyn/A 42421-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsyn/A 42421-2022.docx", "A 42421-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsynsmail/A 42421-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsynsmail/A 42421-2022.docx", "A 42421-2022")</f>
         <v/>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
         <v>45159</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1399,27 +1399,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/artfynd/A 37556-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/artfynd/A 37556-2023.xlsx", "A 37556-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/kartor/A 37556-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/kartor/A 37556-2023.png", "A 37556-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomål/A 37556-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomål/A 37556-2023.docx", "A 37556-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomålsmail/A 37556-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomålsmail/A 37556-2023.docx", "A 37556-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsyn/A 37556-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsyn/A 37556-2023.docx", "A 37556-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsynsmail/A 37556-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsynsmail/A 37556-2023.docx", "A 37556-2023")</f>
         <v/>
       </c>
     </row>
@@ -1433,7 +1433,7 @@
         <v>43325</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43335</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43384</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43385</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>43385</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43385</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43404</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43404</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43411</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43430</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43440</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43447</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>43521</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43521</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43525</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43539</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43543</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43565</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>43570</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>43578</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>43578</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43578</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43587</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43592</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43598</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43613</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43620</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43627</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43661</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43682</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43685</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43685</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43703</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43705</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43718</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43720</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43752</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43754</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43760</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43762</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43781</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43781</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43783</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43817</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43817</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43817</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43840</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43857</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43858</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43860</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43860</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43861</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43873</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>43878</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>43879</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43879</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>43882</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43894</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43896</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43912</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43913</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43918</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43950</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43951</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43956</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43959</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43965</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43965</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43971</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43985</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43990</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44005</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44007</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44012</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44012</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44014</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44022</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44022</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44022</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44047</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44050</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44089</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44102</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44119</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44127</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44127</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44144</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44144</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44158</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44168</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44175</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44175</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44175</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44180</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44200</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44200</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44224</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44225</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44225</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44226</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44228</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44235</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44245</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>44245</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>44256</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44273</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44273</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44280</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44312</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44319</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44333</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44337</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44337</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44343</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44343</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44348</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44349</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44434</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44446</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44469</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>44469</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>44483</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>44483</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44483</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>44501</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>44501</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>44517</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>44518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>44525</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44553</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>44553</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>44575</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>44596</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>44600</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>44600</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>44600</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44600</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>44600</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>44624</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>44677</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>44678</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44698</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44698</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44735</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44739</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44746</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44771</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44774</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44774</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44796</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44802</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44810</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44846</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>44855</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>44869</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44869</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44872</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>44873</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44875</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44879</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>44883</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>44886</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44895</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44909</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44928</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44928</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44930</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44930</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44942</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44943</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44943</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44943</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44949</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44949</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44964</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44978</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>45002</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>45002</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>45006</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>45019</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>45019</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>45020</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>45020</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>45020</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>45022</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>45028</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>45028</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>45028</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>45035</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>45036</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16485,7 +16485,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>45057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>45062</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45089</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45089</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45089</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45089</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>45089</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>45096</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>45096</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>45097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>45098</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>45098</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>45106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>45112</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>45117</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45121</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>45123</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>45126</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>45131</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>45132</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>45132</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>45132</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45135</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>45146</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45146</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>45146</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18282,7 +18282,7 @@
         <v>45152</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>45155</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18396,7 +18396,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>45159</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18510,7 +18510,7 @@
         <v>45174</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18567,7 +18567,7 @@
         <v>45180</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18629,7 +18629,7 @@
         <v>45181</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>

--- a/Översikt LAHOLM.xlsx
+++ b/Översikt LAHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>43440</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43353</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43423</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>43903</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44624</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44726</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45159</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>43325</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43335</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43384</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43385</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>43385</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43385</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43404</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43404</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43411</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43430</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43440</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43447</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>43521</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43521</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43525</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43539</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43543</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43565</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>43570</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>43578</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>43578</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43578</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43587</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43592</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43598</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43613</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43620</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43627</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43661</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43682</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43685</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43685</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43703</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43705</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43718</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43720</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43752</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43754</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43760</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43762</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43781</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43781</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43783</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43817</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43817</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43817</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43840</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43857</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43858</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43860</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43860</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43861</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43873</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>43878</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>43879</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43879</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>43882</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43894</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43896</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43912</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43913</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43918</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43950</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43951</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43956</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43959</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43965</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43965</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43971</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43985</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43990</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44005</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44007</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44012</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44012</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44014</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44022</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44022</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44022</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44047</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44050</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44089</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44102</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44119</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44127</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44127</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44144</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44144</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44158</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44168</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44175</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44175</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44175</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44180</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44200</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44200</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44224</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44225</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44225</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44226</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44228</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44235</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44245</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>44245</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>44256</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44273</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44273</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44280</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44312</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44319</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44333</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44337</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44337</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44343</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44343</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44348</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44349</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44434</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44446</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44469</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>44469</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>44483</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>44483</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44483</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>44501</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>44501</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>44517</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>44518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>44525</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44553</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>44553</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>44575</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>44596</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>44600</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>44600</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>44600</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44600</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>44600</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>44624</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>44677</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>44678</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44698</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44698</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44735</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44739</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44746</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44771</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44774</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44774</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44796</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44802</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44810</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44846</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>44855</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>44869</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44869</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44872</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>44873</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44875</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44879</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>44883</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>44886</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44895</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44909</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44928</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44928</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44930</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44930</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44942</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44943</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44943</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44943</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44949</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44949</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44964</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44978</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>45002</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>45002</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>45006</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>45019</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>45019</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>45020</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>45020</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>45020</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>45022</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>45028</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>45028</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>45028</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>45035</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>45036</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16485,7 +16485,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>45057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>45062</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45089</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45089</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45089</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45089</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>45089</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>45096</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>45096</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>45097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>45098</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>45098</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>45106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>45112</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>45117</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45121</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>45123</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>45126</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>45131</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>45132</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>45132</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>45132</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45135</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>45146</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45146</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>45146</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18282,7 +18282,7 @@
         <v>45152</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>45155</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18396,7 +18396,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>45159</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18510,7 +18510,7 @@
         <v>45174</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18567,7 +18567,7 @@
         <v>45180</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18629,7 +18629,7 @@
         <v>45181</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>

--- a/Översikt LAHOLM.xlsx
+++ b/Översikt LAHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>43440</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43353</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43423</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>43903</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44624</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44726</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45159</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>43325</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43335</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43384</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43385</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>43385</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43385</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43404</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43404</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43411</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43430</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43440</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43447</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>43521</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43521</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43525</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43539</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43543</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43565</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>43570</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>43578</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>43578</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43578</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43587</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43592</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43598</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43613</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43620</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43627</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43661</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43682</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43685</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43685</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43703</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43705</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43718</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43720</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43752</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43754</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43760</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43762</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43781</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43781</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43783</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43817</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43817</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43817</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43840</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43857</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43858</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43860</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43860</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43861</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43873</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>43878</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>43879</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43879</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>43882</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43894</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43896</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43912</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43913</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43918</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43950</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43951</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43956</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43959</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43965</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43965</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43971</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43985</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43990</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44005</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44007</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44012</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44012</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44014</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44022</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44022</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44022</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44047</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44050</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44089</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44102</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44119</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44127</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44127</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44144</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44144</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44158</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44168</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44175</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44175</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44175</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44180</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44200</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44200</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44224</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44225</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44225</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44226</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44228</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44235</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44245</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>44245</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>44256</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44273</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44273</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44280</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44312</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44319</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44333</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44337</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44337</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44343</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44343</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44348</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44349</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44434</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44446</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44469</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>44469</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>44483</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>44483</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44483</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>44501</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>44501</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>44517</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>44518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>44525</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44553</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>44553</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>44575</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>44596</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>44600</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>44600</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>44600</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44600</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>44600</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>44624</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>44677</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>44678</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44698</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44698</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44735</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44739</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44746</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44771</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44774</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44774</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44796</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44802</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44810</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44846</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>44855</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>44869</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44869</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44872</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>44873</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44875</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44879</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>44883</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>44886</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44895</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44909</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44928</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44928</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44930</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44930</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44942</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44943</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44943</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44943</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44949</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44949</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44964</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44978</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>45002</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>45002</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>45006</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>45019</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>45019</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>45020</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>45020</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>45020</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>45022</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>45028</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>45028</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>45028</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>45035</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>45036</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16485,7 +16485,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>45057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>45062</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45089</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45089</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45089</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45089</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>45089</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>45096</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>45096</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>45097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>45098</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>45098</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>45106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>45112</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>45117</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45121</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>45123</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>45126</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>45131</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>45132</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>45132</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>45132</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45135</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>45146</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45146</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>45146</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18282,7 +18282,7 @@
         <v>45152</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>45155</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18396,7 +18396,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>45159</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18510,7 +18510,7 @@
         <v>45174</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18567,7 +18567,7 @@
         <v>45180</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18629,7 +18629,7 @@
         <v>45181</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>

--- a/Översikt LAHOLM.xlsx
+++ b/Översikt LAHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>43440</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43353</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43423</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>43903</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44624</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44726</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45159</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>43325</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43335</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43384</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43385</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>43385</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43385</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43404</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43404</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43411</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43430</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43440</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43447</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>43521</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43521</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43525</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43539</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43543</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43565</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>43570</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>43578</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>43578</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43578</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43587</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43592</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43598</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43613</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43620</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43627</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43661</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43682</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43685</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43685</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43703</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43705</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43718</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43720</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43752</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43754</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43760</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43762</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43781</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43781</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43783</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43817</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43817</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43817</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43840</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43857</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43858</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43860</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43860</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43861</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43873</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>43878</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>43879</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43879</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>43882</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43894</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43896</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43912</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43913</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43918</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43950</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43951</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43956</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43959</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43965</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43965</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43971</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43985</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43990</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44005</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44007</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44012</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44012</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44014</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44022</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44022</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44022</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44047</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44050</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44089</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44102</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44119</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44127</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44127</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44144</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44144</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44158</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44168</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44175</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44175</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44175</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44180</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44200</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44200</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44224</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44225</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44225</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44226</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44228</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44235</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44245</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>44245</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>44256</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44273</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44273</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44280</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44312</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44319</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44333</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44337</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44337</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44343</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44343</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44348</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44349</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44434</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44446</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44469</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>44469</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>44483</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>44483</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44483</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>44501</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>44501</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>44517</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>44518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>44525</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44553</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>44553</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>44575</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>44596</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>44600</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>44600</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>44600</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44600</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>44600</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>44624</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>44677</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>44678</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44698</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44698</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44735</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44739</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44746</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44771</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44774</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44774</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44796</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44802</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44810</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44846</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>44855</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>44869</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44869</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44872</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>44873</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44875</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44879</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>44883</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>44886</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44895</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44909</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44928</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44928</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44930</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44930</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44942</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44943</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44943</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44943</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44949</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44949</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44964</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44978</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>45002</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>45002</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>45006</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>45019</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>45019</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>45020</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>45020</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>45020</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>45022</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>45028</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>45028</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>45028</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>45035</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>45036</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16485,7 +16485,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>45057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>45062</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45089</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45089</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45089</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45089</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>45089</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>45096</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>45096</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>45097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>45098</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>45098</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>45106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>45112</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>45117</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45121</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>45123</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>45126</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>45131</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>45132</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>45132</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>45132</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45135</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>45146</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45146</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>45146</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18282,7 +18282,7 @@
         <v>45152</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>45155</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18396,7 +18396,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>45159</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18510,7 +18510,7 @@
         <v>45174</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18567,7 +18567,7 @@
         <v>45180</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18629,7 +18629,7 @@
         <v>45181</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>

--- a/Översikt LAHOLM.xlsx
+++ b/Översikt LAHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>43440</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43353</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43423</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>43903</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44624</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44726</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45159</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>43325</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43335</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43384</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43385</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>43385</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43385</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43404</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43404</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43411</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43430</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43440</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43447</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>43521</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43521</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43525</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43539</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43543</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43565</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>43570</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>43578</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>43578</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43578</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43587</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43592</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43598</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43613</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43620</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43627</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43661</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43682</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43685</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43685</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43703</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43705</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43718</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43720</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43752</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43754</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43760</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43762</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43781</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43781</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43783</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43817</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43817</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43817</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43840</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43857</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43858</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43860</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43860</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43861</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43873</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>43878</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>43879</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43879</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>43882</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43894</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43896</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43912</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43913</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43918</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43950</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43951</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43956</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43959</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43965</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43965</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43971</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43985</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43990</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44005</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44007</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44012</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44012</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44014</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44022</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44022</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44022</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44047</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44050</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44089</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44102</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44119</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44127</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44127</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44144</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44144</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44158</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44168</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44175</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44175</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44175</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44180</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44200</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44200</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44224</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44225</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44225</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44226</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44228</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44235</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44245</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>44245</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>44256</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44273</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44273</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44280</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44312</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44319</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44333</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44337</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44337</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44343</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44343</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44348</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44349</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44434</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44446</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44469</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>44469</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>44483</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>44483</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44483</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>44501</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>44501</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>44517</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>44518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>44525</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44553</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>44553</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>44575</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>44596</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>44600</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>44600</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>44600</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44600</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>44600</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>44624</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>44677</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>44678</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44698</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44698</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44735</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44739</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44746</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44771</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44774</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44774</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44796</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44802</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44810</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44846</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>44855</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>44869</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44869</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44872</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>44873</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44875</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44879</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>44883</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>44886</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44895</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44909</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44928</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44928</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44930</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44930</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44942</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44943</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44943</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44943</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44949</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44949</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44964</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44978</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>45002</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>45002</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>45006</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>45019</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>45019</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>45020</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>45020</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>45020</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>45022</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>45028</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>45028</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>45028</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>45035</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>45036</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16485,7 +16485,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>45057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>45062</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45089</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45089</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45089</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45089</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>45089</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>45096</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>45096</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>45097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>45098</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>45098</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>45106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>45112</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>45117</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45121</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>45123</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>45126</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>45131</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>45132</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>45132</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>45132</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45135</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>45146</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45146</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>45146</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18282,7 +18282,7 @@
         <v>45152</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>45155</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18396,7 +18396,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>45159</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18510,7 +18510,7 @@
         <v>45174</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18567,7 +18567,7 @@
         <v>45180</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18629,7 +18629,7 @@
         <v>45181</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>

--- a/Översikt LAHOLM.xlsx
+++ b/Översikt LAHOLM.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y310"/>
+  <dimension ref="A1:Y311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43440</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43353</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43423</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>43903</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44624</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44726</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45159</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>43325</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43335</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43384</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43385</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>43385</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43385</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43404</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43404</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43411</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43430</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43440</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43447</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>43521</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43521</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43525</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43539</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43543</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43565</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>43570</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>43578</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>43578</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43578</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43587</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43592</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43598</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43613</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43620</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43627</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43661</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43682</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43685</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43685</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43703</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43705</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43718</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43720</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43752</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43754</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43760</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43762</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43781</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43781</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43783</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43817</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43817</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43817</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43840</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43857</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43858</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43860</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43860</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43861</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43873</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>43878</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>43879</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43879</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>43882</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43894</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43896</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43912</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43913</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43918</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43950</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43951</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43956</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43959</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43965</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43965</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43971</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43985</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43990</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44005</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44007</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44012</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44012</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44014</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44022</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44022</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44022</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44047</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44050</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44089</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44102</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44119</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44127</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44127</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44144</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44144</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44158</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44168</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44175</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44175</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44175</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44180</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44200</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44200</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44224</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44225</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44225</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44226</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44228</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44235</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44245</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>44245</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>44256</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44273</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44273</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44280</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44312</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44319</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44333</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44337</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44337</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44343</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44343</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44348</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44349</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44434</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44446</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44469</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>44469</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>44483</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>44483</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44483</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>44501</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>44501</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>44517</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>44518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>44525</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44553</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>44553</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>44575</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>44596</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>44600</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>44600</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>44600</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44600</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>44600</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>44624</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>44677</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>44678</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44698</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44698</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44735</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44739</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44746</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44771</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44774</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44774</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44796</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44802</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44810</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44846</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>44855</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>44869</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44869</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44872</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>44873</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44875</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44879</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>44883</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>44886</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44895</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44909</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44928</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44928</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44930</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44930</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44942</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44943</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44943</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44943</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44949</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44949</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44964</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44978</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>45002</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>45002</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>45006</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>45019</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>45019</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>45020</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>45020</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>45020</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>45022</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>45028</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>45028</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>45028</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>45035</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>45036</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16485,7 +16485,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>45057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>45062</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45089</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45089</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45089</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45089</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>45089</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>45096</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>45096</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>45097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>45098</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>45098</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>45106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>45112</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>45117</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45121</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>45123</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>45126</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>45131</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>45132</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>45132</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>45132</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45135</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>45146</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45146</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>45146</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18282,7 +18282,7 @@
         <v>45152</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>45155</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18396,7 +18396,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>45159</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18510,7 +18510,7 @@
         <v>45174</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18567,7 +18567,7 @@
         <v>45180</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
       </c>
       <c r="R309" s="2" t="inlineStr"/>
     </row>
-    <row r="310">
+    <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
           <t>A 42605-2023</t>
@@ -18629,7 +18629,7 @@
         <v>45181</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18675,6 +18675,63 @@
         <v>0</v>
       </c>
       <c r="R310" s="2" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>A 46828-2023</t>
+        </is>
+      </c>
+      <c r="B311" s="1" t="n">
+        <v>45199</v>
+      </c>
+      <c r="C311" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>LAHOLM</t>
+        </is>
+      </c>
+      <c r="G311" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0</v>
+      </c>
+      <c r="I311" t="n">
+        <v>0</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0</v>
+      </c>
+      <c r="L311" t="n">
+        <v>0</v>
+      </c>
+      <c r="M311" t="n">
+        <v>0</v>
+      </c>
+      <c r="N311" t="n">
+        <v>0</v>
+      </c>
+      <c r="O311" t="n">
+        <v>0</v>
+      </c>
+      <c r="P311" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>0</v>
+      </c>
+      <c r="R311" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt LAHOLM.xlsx
+++ b/Översikt LAHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>43440</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43353</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43423</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>43903</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44624</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44726</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45159</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>43325</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43335</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43384</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43385</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>43385</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43385</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43404</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43404</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43411</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43430</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43440</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43447</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>43521</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43521</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43525</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43539</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43543</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43565</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>43570</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>43578</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>43578</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43578</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43587</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43592</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43598</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43613</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43620</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43627</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43661</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43682</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43685</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43685</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43703</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43705</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43718</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43720</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43752</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43754</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43760</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43762</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43781</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43781</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43783</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43817</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43817</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43817</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43840</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43857</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43858</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43860</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43860</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43861</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43873</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>43878</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>43879</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43879</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>43882</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43894</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43896</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43912</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43913</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43918</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43950</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43951</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43956</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43959</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43965</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43965</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43971</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43985</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43990</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44005</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44007</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44012</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44012</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44014</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44022</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44022</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44022</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44047</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44050</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44089</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44102</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44119</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44127</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44127</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44144</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44144</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44158</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44168</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44175</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44175</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44175</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44180</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44200</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44200</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44224</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44225</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44225</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44226</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44228</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44235</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44245</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>44245</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>44256</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44273</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44273</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44280</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44312</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44319</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44333</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44337</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44337</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44343</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44343</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44348</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44349</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44434</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44446</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44469</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>44469</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>44483</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>44483</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44483</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>44501</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>44501</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>44517</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>44518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>44525</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44553</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>44553</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>44575</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>44596</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>44600</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>44600</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>44600</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44600</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>44600</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>44624</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>44677</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>44678</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44698</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44698</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44735</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44739</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44746</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44771</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44774</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44774</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44796</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44802</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44810</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44846</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>44855</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>44869</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44869</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44872</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>44873</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44875</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44879</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>44883</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>44886</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44895</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44909</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44928</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44928</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44930</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44930</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44942</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44943</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44943</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44943</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44949</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44949</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44964</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44978</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>45002</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>45002</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>45006</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>45019</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>45019</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>45020</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>45020</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>45020</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>45022</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>45028</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>45028</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>45028</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>45035</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>45036</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16485,7 +16485,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>45057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>45062</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45089</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45089</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45089</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45089</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>45089</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>45096</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>45096</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>45097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>45098</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>45098</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>45106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>45112</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>45117</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45121</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>45123</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>45126</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>45131</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>45132</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>45132</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>45132</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45135</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>45146</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45146</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>45146</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18282,7 +18282,7 @@
         <v>45152</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>45155</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18396,7 +18396,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>45159</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18510,7 +18510,7 @@
         <v>45174</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18567,7 +18567,7 @@
         <v>45180</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18629,7 +18629,7 @@
         <v>45181</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18686,7 +18686,7 @@
         <v>45199</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>

--- a/Översikt LAHOLM.xlsx
+++ b/Översikt LAHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>43440</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43353</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43423</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>43903</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44624</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44726</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45159</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>43325</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43335</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43384</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43385</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>43385</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43385</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43404</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43404</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43411</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43430</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43440</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43447</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>43521</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43521</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43525</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43539</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43543</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43565</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>43570</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>43578</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>43578</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43578</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43587</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43592</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43598</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43613</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43620</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43627</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43661</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43682</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43685</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43685</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43703</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43705</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43718</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43720</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43752</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43754</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43760</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43762</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43781</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43781</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43783</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43817</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43817</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43817</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43840</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43857</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43858</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43860</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43860</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43861</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43873</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>43878</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>43879</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43879</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>43882</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43894</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43896</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43912</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43913</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43918</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43950</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43951</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43956</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43959</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43965</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43965</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43971</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43985</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43990</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44005</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44007</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44012</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44012</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44014</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44022</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44022</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44022</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44047</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44050</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44089</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44102</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44119</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44127</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44127</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44144</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44144</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44158</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44168</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44175</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44175</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44175</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44180</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44200</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44200</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44224</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44225</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44225</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44226</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44228</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44235</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44245</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>44245</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>44256</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44273</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44273</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44280</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44312</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44319</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44333</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44337</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44337</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44343</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44343</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44348</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44349</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44434</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44446</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44469</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>44469</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>44483</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>44483</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44483</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>44501</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>44501</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>44517</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>44518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>44525</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44553</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>44553</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>44575</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>44596</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>44600</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>44600</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>44600</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44600</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>44600</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>44624</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>44677</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>44678</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44698</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44698</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44735</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44739</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44746</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44771</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44774</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44774</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44796</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44802</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44810</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44846</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>44855</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>44869</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44869</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44872</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>44873</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44875</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44879</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>44883</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>44886</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44895</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44909</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44928</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44928</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44930</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44930</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44942</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44943</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44943</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44943</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44949</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44949</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44964</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44978</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>45002</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>45002</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>45006</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>45019</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>45019</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>45020</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>45020</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>45020</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>45022</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>45028</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>45028</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>45028</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>45035</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>45036</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16485,7 +16485,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>45057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>45062</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45089</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45089</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45089</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45089</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>45089</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>45096</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>45096</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>45097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>45098</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>45098</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>45106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>45112</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>45117</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45121</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>45123</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>45126</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>45131</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>45132</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>45132</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>45132</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45135</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>45146</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45146</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>45146</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18282,7 +18282,7 @@
         <v>45152</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>45155</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18396,7 +18396,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>45159</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18510,7 +18510,7 @@
         <v>45174</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18567,7 +18567,7 @@
         <v>45180</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18629,7 +18629,7 @@
         <v>45181</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18686,7 +18686,7 @@
         <v>45199</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>

--- a/Översikt LAHOLM.xlsx
+++ b/Översikt LAHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>43440</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43353</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43423</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>43903</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44624</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44726</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45159</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>43325</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>43335</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>43384</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>43385</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>43385</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>43385</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43404</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>43404</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>43411</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43430</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43433</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43440</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>43446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43447</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v>43489</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43495</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>43521</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43521</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43525</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43539</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43543</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43565</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>43570</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>43578</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>43578</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43578</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43580</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43587</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43592</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43598</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>43613</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>43620</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43627</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>43661</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>43682</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>43685</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>43685</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>43696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43703</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>43704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>43705</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>43710</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43718</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43720</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>43741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>43752</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43754</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43760</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43762</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43781</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43781</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43783</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43811</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>43817</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>43817</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         <v>43817</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>43837</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43840</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43857</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43858</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43860</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43860</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43861</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43873</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>43878</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>43879</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43879</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>43882</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43894</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43895</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43896</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43912</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43913</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43918</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43922</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43950</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43951</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43956</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43959</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43965</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43965</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43971</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43985</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43990</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44005</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44007</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>44012</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>44012</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>44014</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44022</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44022</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44022</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44040</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44047</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>44050</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>44089</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44102</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>44119</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>44123</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>44127</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>44127</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>44144</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44144</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44158</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44168</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>44175</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44175</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44175</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44180</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44200</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>44200</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44224</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44225</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>44225</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44226</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44228</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44235</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>44245</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>44245</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>44256</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>44273</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>44273</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44280</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44312</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>44319</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>44333</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44337</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44337</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44343</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44343</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44348</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44349</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44434</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44446</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>44462</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44469</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>44469</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>44483</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>44483</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44483</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>44501</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>44501</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>44517</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>44518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>44525</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>44553</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>44553</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>44575</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>44592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>44596</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>44600</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>44600</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>44600</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44600</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>44600</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>44624</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>44677</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>44678</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44698</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44698</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44735</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44739</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44746</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44771</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44774</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44774</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44796</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>44802</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44810</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44846</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>44855</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>44869</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44869</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44872</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>44873</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44875</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44879</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>44883</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>44886</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44895</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44909</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>44928</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>44928</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44930</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44930</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44942</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44943</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44943</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44943</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44949</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44949</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44951</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44964</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44973</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44978</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>45002</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>45002</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>45006</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>45019</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>45019</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>45020</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>45020</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>45020</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>45022</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>45028</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>45028</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>45028</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>45035</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>45036</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16485,7 +16485,7 @@
         <v>45051</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>45057</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>45062</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45089</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45089</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45089</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45089</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>45089</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>45096</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>45096</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>45097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>45098</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>45098</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45104</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>45106</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>45112</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>45117</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>45119</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45121</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>45123</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>45126</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>45131</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>45132</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>45132</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>45132</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45135</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>45146</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45146</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>45146</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18282,7 +18282,7 @@
         <v>45152</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>45155</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18396,7 +18396,7 @@
         <v>45159</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>45159</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18510,7 +18510,7 @@
         <v>45174</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18567,7 +18567,7 @@
         <v>45180</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18629,7 +18629,7 @@
         <v>45181</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18686,7 +18686,7 @@
         <v>45199</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>

--- a/Översikt LAHOLM.xlsx
+++ b/Översikt LAHOLM.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y311"/>
+  <dimension ref="A1:Y312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43440</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43353</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43423</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>43903</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44624</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44726</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45159</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1426,14 +1426,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 35358-2018</t>
+          <t>A 48281-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>43325</v>
+        <v>45205</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1445,13 +1445,8 @@
           <t>LAHOLM</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>4.9</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1460,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1475,27 +1470,55 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Hårginst</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/artfynd/A 48281-2023.xlsx", "A 48281-2023")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/kartor/A 48281-2023.png", "A 48281-2023")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomål/A 48281-2023.docx", "A 48281-2023")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/klagomålsmail/A 48281-2023.docx", "A 48281-2023")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsyn/A 48281-2023.docx", "A 48281-2023")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LAHOLM/tillsynsmail/A 48281-2023.docx", "A 48281-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 36570-2018</t>
+          <t>A 35358-2018</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>43329</v>
+        <v>43325</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1507,8 +1530,13 @@
           <t>LAHOLM</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>3.2</v>
+        <v>4.9</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1545,14 +1573,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 38604-2018</t>
+          <t>A 36570-2018</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>43335</v>
+        <v>43329</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1565,7 +1593,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.4</v>
+        <v>3.2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1602,14 +1630,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 38595-2018</t>
+          <t>A 38604-2018</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1622,7 +1650,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1659,14 +1687,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 39896-2018</t>
+          <t>A 38595-2018</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>43342</v>
+        <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1679,7 +1707,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1716,14 +1744,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 42783-2018</t>
+          <t>A 39896-2018</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>43353</v>
+        <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1735,13 +1763,8 @@
           <t>LAHOLM</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G17" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1778,14 +1801,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 51704-2018</t>
+          <t>A 42783-2018</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>43384</v>
+        <v>43353</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1797,8 +1820,13 @@
           <t>LAHOLM</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>0.3</v>
+        <v>3.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1835,14 +1863,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 51715-2018</t>
+          <t>A 51704-2018</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
         <v>43384</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1854,13 +1882,8 @@
           <t>LAHOLM</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G19" t="n">
-        <v>15.7</v>
+        <v>0.3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1897,14 +1920,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 53685-2018</t>
+          <t>A 51715-2018</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>43385</v>
+        <v>43384</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1916,8 +1939,13 @@
           <t>LAHOLM</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>6.7</v>
+        <v>15.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1954,14 +1982,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 53797-2018</t>
+          <t>A 53685-2018</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
         <v>43385</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1974,7 +2002,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.3</v>
+        <v>6.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2011,14 +2039,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 53729-2018</t>
+          <t>A 53797-2018</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
         <v>43385</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2031,7 +2059,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2068,14 +2096,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 64958-2018</t>
+          <t>A 53729-2018</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>43404</v>
+        <v>43385</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2088,7 +2116,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.7</v>
+        <v>5.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2125,14 +2153,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 59265-2018</t>
+          <t>A 64958-2018</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
         <v>43404</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2145,7 +2173,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5.8</v>
+        <v>0.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2182,14 +2210,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 60923-2018</t>
+          <t>A 59265-2018</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>43411</v>
+        <v>43404</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2202,7 +2230,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.9</v>
+        <v>5.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2239,14 +2267,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 60921-2018</t>
+          <t>A 60923-2018</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
         <v>43411</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2296,14 +2324,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 62381-2018</t>
+          <t>A 60921-2018</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>43416</v>
+        <v>43411</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2316,7 +2344,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2353,14 +2381,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 61740-2018</t>
+          <t>A 62381-2018</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>43425</v>
+        <v>43416</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2373,7 +2401,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2410,14 +2438,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 64275-2018</t>
+          <t>A 61740-2018</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>43430</v>
+        <v>43425</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2430,7 +2458,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2467,14 +2495,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 64216-2018</t>
+          <t>A 64275-2018</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2487,7 +2515,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2524,14 +2552,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 64257-2018</t>
+          <t>A 64216-2018</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2544,7 +2572,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2581,14 +2609,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 65367-2018</t>
+          <t>A 64257-2018</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>43433</v>
+        <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2601,7 +2629,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>6.6</v>
+        <v>3.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2638,14 +2666,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 69504-2018</t>
+          <t>A 65367-2018</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>43440</v>
+        <v>43433</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2658,7 +2686,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.8</v>
+        <v>6.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2695,14 +2723,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 69457-2018</t>
+          <t>A 69504-2018</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
         <v>43440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2715,7 +2743,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2752,14 +2780,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 67824-2018</t>
+          <t>A 69457-2018</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2772,7 +2800,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2809,14 +2837,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 70343-2018</t>
+          <t>A 67824-2018</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>43446</v>
+        <v>43440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2829,7 +2857,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2866,14 +2894,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 69793-2018</t>
+          <t>A 70343-2018</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>43447</v>
+        <v>43446</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2886,7 +2914,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.8</v>
+        <v>0.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2923,14 +2951,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 1995-2019</t>
+          <t>A 69793-2018</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>43475</v>
+        <v>43447</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2943,7 +2971,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2980,14 +3008,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 5543-2019</t>
+          <t>A 1995-2019</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>43489</v>
+        <v>43475</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2999,13 +3027,8 @@
           <t>LAHOLM</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>6.7</v>
+        <v>1.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3042,14 +3065,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 6016-2019</t>
+          <t>A 5543-2019</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>43493</v>
+        <v>43489</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3061,8 +3084,13 @@
           <t>LAHOLM</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>2.9</v>
+        <v>6.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3099,14 +3127,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 8175-2019</t>
+          <t>A 6016-2019</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>43495</v>
+        <v>43493</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3119,7 +3147,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3156,14 +3184,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 7916-2019</t>
+          <t>A 8175-2019</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>43501</v>
+        <v>43495</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3176,7 +3204,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3213,14 +3241,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 11380-2019</t>
+          <t>A 7916-2019</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>43517</v>
+        <v>43501</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3233,7 +3261,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.1</v>
+        <v>3.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3270,14 +3298,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 11389-2019</t>
+          <t>A 11380-2019</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3290,7 +3318,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3327,14 +3355,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 11806-2019</t>
+          <t>A 11389-2019</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>43521</v>
+        <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3347,7 +3375,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>17.8</v>
+        <v>0.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3384,14 +3412,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 11835-2019</t>
+          <t>A 11806-2019</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
         <v>43521</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3404,7 +3432,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.7</v>
+        <v>17.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3441,14 +3469,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 11831-2019</t>
+          <t>A 11835-2019</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3461,7 +3489,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3498,14 +3526,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 12758-2019</t>
+          <t>A 11831-2019</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>43525</v>
+        <v>43521</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3518,7 +3546,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3555,14 +3583,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 13049-2019</t>
+          <t>A 12758-2019</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>43528</v>
+        <v>43525</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3575,7 +3603,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3612,14 +3640,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 15257-2019</t>
+          <t>A 13049-2019</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>43539</v>
+        <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3632,7 +3660,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3669,14 +3697,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 15921-2019</t>
+          <t>A 15257-2019</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>43543</v>
+        <v>43539</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3689,7 +3717,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3726,14 +3754,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 19535-2019</t>
+          <t>A 15921-2019</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>43565</v>
+        <v>43543</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3746,7 +3774,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.7</v>
+        <v>1.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3783,14 +3811,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 20122-2019</t>
+          <t>A 19535-2019</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>43570</v>
+        <v>43565</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3803,7 +3831,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3840,14 +3868,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 21022-2019</t>
+          <t>A 20122-2019</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>43578</v>
+        <v>43570</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3860,7 +3888,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5.4</v>
+        <v>1.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3897,14 +3925,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 21024-2019</t>
+          <t>A 21022-2019</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
         <v>43578</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3917,7 +3945,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.7</v>
+        <v>5.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3954,14 +3982,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 21151-2019</t>
+          <t>A 21024-2019</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
         <v>43578</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3974,7 +4002,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4011,14 +4039,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 21448-2019</t>
+          <t>A 21151-2019</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>43580</v>
+        <v>43578</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4031,7 +4059,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4068,14 +4096,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 22488-2019</t>
+          <t>A 21448-2019</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>43587</v>
+        <v>43580</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4088,7 +4116,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4125,14 +4153,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 23219-2019</t>
+          <t>A 22488-2019</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>43592</v>
+        <v>43587</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4145,7 +4173,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4182,14 +4210,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 23113-2019</t>
+          <t>A 23219-2019</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
         <v>43592</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4202,7 +4230,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>11.4</v>
+        <v>1.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4239,14 +4267,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 24047-2019</t>
+          <t>A 23113-2019</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>43598</v>
+        <v>43592</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4258,13 +4286,8 @@
           <t>LAHOLM</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>0.8</v>
+        <v>11.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4301,14 +4324,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 26744-2019</t>
+          <t>A 24047-2019</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>43613</v>
+        <v>43598</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4320,8 +4343,13 @@
           <t>LAHOLM</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4358,14 +4386,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 27853-2019</t>
+          <t>A 26744-2019</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>43620</v>
+        <v>43613</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4378,7 +4406,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4415,14 +4443,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 28753-2019</t>
+          <t>A 27853-2019</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>43627</v>
+        <v>43620</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4435,7 +4463,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4472,14 +4500,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 35077-2019</t>
+          <t>A 28753-2019</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>43661</v>
+        <v>43627</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4492,7 +4520,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4529,14 +4557,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 37739-2019</t>
+          <t>A 35077-2019</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>43682</v>
+        <v>43661</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4549,7 +4577,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4586,14 +4614,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 38402-2019</t>
+          <t>A 37739-2019</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>43685</v>
+        <v>43682</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4606,7 +4634,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4643,14 +4671,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 38397-2019</t>
+          <t>A 38402-2019</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
         <v>43685</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4663,7 +4691,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4700,14 +4728,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 40574-2019</t>
+          <t>A 38397-2019</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>43696</v>
+        <v>43685</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4720,7 +4748,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4757,14 +4785,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 41093-2019</t>
+          <t>A 40574-2019</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>43698</v>
+        <v>43696</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4777,7 +4805,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4814,14 +4842,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 42189-2019</t>
+          <t>A 41093-2019</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>43703</v>
+        <v>43698</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4834,7 +4862,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4871,14 +4899,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 42738-2019</t>
+          <t>A 42189-2019</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>43704</v>
+        <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4891,7 +4919,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4928,14 +4956,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 42465-2019</t>
+          <t>A 42738-2019</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4948,7 +4976,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4985,14 +5013,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 42876-2019</t>
+          <t>A 42465-2019</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>43705</v>
+        <v>43704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5005,7 +5033,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5042,14 +5070,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 44159-2019</t>
+          <t>A 42876-2019</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>43710</v>
+        <v>43705</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5062,7 +5090,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5099,14 +5127,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 46082-2019</t>
+          <t>A 44159-2019</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>43718</v>
+        <v>43710</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5119,7 +5147,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5156,14 +5184,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 46846-2019</t>
+          <t>A 46082-2019</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>43720</v>
+        <v>43718</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5176,7 +5204,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5213,14 +5241,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 47711-2019</t>
+          <t>A 46846-2019</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>43724</v>
+        <v>43720</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5233,7 +5261,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5270,14 +5298,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 51792-2019</t>
+          <t>A 47711-2019</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>43741</v>
+        <v>43724</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5290,7 +5318,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5327,14 +5355,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 52749-2019</t>
+          <t>A 51792-2019</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>43746</v>
+        <v>43741</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5347,7 +5375,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5384,14 +5412,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 54016-2019</t>
+          <t>A 52749-2019</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>43752</v>
+        <v>43746</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5403,13 +5431,8 @@
           <t>LAHOLM</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5446,14 +5469,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 54543-2019</t>
+          <t>A 54016-2019</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>43754</v>
+        <v>43752</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5465,8 +5488,13 @@
           <t>LAHOLM</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5503,14 +5531,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 55584-2019</t>
+          <t>A 54543-2019</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>43760</v>
+        <v>43754</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5523,7 +5551,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5560,14 +5588,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 57817-2019</t>
+          <t>A 55584-2019</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>43762</v>
+        <v>43760</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5580,7 +5608,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5617,14 +5645,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 58782-2019</t>
+          <t>A 57817-2019</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>43773</v>
+        <v>43762</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5637,7 +5665,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5674,14 +5702,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 60712-2019</t>
+          <t>A 58782-2019</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>43781</v>
+        <v>43773</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5693,13 +5721,8 @@
           <t>LAHOLM</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>1.5</v>
+        <v>5.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5736,14 +5759,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 60734-2019</t>
+          <t>A 60712-2019</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
         <v>43781</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5761,7 +5784,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5798,14 +5821,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 60823-2019</t>
+          <t>A 60734-2019</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5817,8 +5840,13 @@
           <t>LAHOLM</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5855,14 +5883,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 61426-2019</t>
+          <t>A 60823-2019</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>43783</v>
+        <v>43781</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5912,14 +5940,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 61434-2019</t>
+          <t>A 61426-2019</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
         <v>43783</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5932,7 +5960,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5969,14 +5997,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 65339-2019</t>
+          <t>A 61434-2019</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>43803</v>
+        <v>43783</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5989,7 +6017,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6026,14 +6054,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 67210-2019</t>
+          <t>A 65339-2019</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>43811</v>
+        <v>43803</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6045,13 +6073,8 @@
           <t>LAHOLM</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6088,14 +6111,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 575-2020</t>
+          <t>A 67210-2019</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>43817</v>
+        <v>43811</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6107,8 +6130,13 @@
           <t>LAHOLM</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6145,14 +6173,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 581-2020</t>
+          <t>A 575-2020</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
         <v>43817</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6165,7 +6193,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6202,14 +6230,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 583-2020</t>
+          <t>A 581-2020</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
         <v>43817</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6222,7 +6250,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6259,14 +6287,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 394-2020</t>
+          <t>A 583-2020</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>43837</v>
+        <v>43817</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6279,7 +6307,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6316,14 +6344,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 1160-2020</t>
+          <t>A 394-2020</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>43840</v>
+        <v>43837</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6336,7 +6364,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6373,14 +6401,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 3296-2020</t>
+          <t>A 1160-2020</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>43852</v>
+        <v>43840</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6393,7 +6421,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6430,14 +6458,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 4155-2020</t>
+          <t>A 3296-2020</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>43857</v>
+        <v>43852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6450,7 +6478,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6487,14 +6515,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 4384-2020</t>
+          <t>A 4155-2020</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>43858</v>
+        <v>43857</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6507,7 +6535,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6544,14 +6572,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 5266-2020</t>
+          <t>A 4384-2020</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>43860</v>
+        <v>43858</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6564,7 +6592,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6601,14 +6629,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 5204-2020</t>
+          <t>A 5266-2020</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
         <v>43860</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6621,7 +6649,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6658,14 +6686,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 5199-2020</t>
+          <t>A 5204-2020</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
         <v>43860</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6715,14 +6743,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 5703-2020</t>
+          <t>A 5199-2020</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6735,7 +6763,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6772,14 +6800,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 7755-2020</t>
+          <t>A 5703-2020</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>43873</v>
+        <v>43861</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6792,7 +6820,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6829,14 +6857,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 8855-2020</t>
+          <t>A 7755-2020</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>43878</v>
+        <v>43873</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6849,7 +6877,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6886,14 +6914,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 8954-2020</t>
+          <t>A 8855-2020</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>43879</v>
+        <v>43878</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6943,14 +6971,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 9243-2020</t>
+          <t>A 8954-2020</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
         <v>43879</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6963,7 +6991,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7000,14 +7028,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 10026-2020</t>
+          <t>A 9243-2020</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>43882</v>
+        <v>43879</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7020,7 +7048,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7057,14 +7085,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 11918-2020</t>
+          <t>A 10026-2020</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>43894</v>
+        <v>43882</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7077,7 +7105,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.6</v>
+        <v>5.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7114,14 +7142,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 13646-2020</t>
+          <t>A 11918-2020</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>43895</v>
+        <v>43894</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7134,7 +7162,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7171,14 +7199,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 12367-2020</t>
+          <t>A 13646-2020</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>43896</v>
+        <v>43895</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7191,7 +7219,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7228,14 +7256,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 15160-2020</t>
+          <t>A 12367-2020</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>43912</v>
+        <v>43896</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7248,7 +7276,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7285,14 +7313,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 15299-2020</t>
+          <t>A 15160-2020</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7305,7 +7333,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7342,14 +7370,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 16405-2020</t>
+          <t>A 15299-2020</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>43918</v>
+        <v>43913</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7362,7 +7390,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7399,14 +7427,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 17283-2020</t>
+          <t>A 16405-2020</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>43922</v>
+        <v>43918</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7419,7 +7447,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7456,14 +7484,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 21365-2020</t>
+          <t>A 17283-2020</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>43950</v>
+        <v>43922</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7476,7 +7504,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7513,14 +7541,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 21190-2020</t>
+          <t>A 21365-2020</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7533,7 +7561,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7570,14 +7598,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 21441-2020</t>
+          <t>A 21190-2020</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>43956</v>
+        <v>43951</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7590,7 +7618,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7627,14 +7655,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 22073-2020</t>
+          <t>A 21441-2020</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>43959</v>
+        <v>43956</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7647,7 +7675,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7684,14 +7712,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 22813-2020</t>
+          <t>A 22073-2020</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>43963</v>
+        <v>43959</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7704,7 +7732,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7741,14 +7769,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 23017-2020</t>
+          <t>A 22813-2020</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>43965</v>
+        <v>43963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7761,7 +7789,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7798,14 +7826,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 23091-2020</t>
+          <t>A 23017-2020</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
         <v>43965</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7818,7 +7846,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7855,14 +7883,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 23846-2020</t>
+          <t>A 23091-2020</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>43971</v>
+        <v>43965</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7875,7 +7903,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7912,14 +7940,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 26042-2020</t>
+          <t>A 23846-2020</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>43985</v>
+        <v>43971</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7932,7 +7960,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7969,14 +7997,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 26960-2020</t>
+          <t>A 26042-2020</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>43990</v>
+        <v>43985</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7989,7 +8017,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8026,14 +8054,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 29619-2020</t>
+          <t>A 26960-2020</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44005</v>
+        <v>43990</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8046,7 +8074,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8083,14 +8111,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 30440-2020</t>
+          <t>A 29619-2020</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44007</v>
+        <v>44005</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8103,7 +8131,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8140,14 +8168,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 31306-2020</t>
+          <t>A 30440-2020</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44012</v>
+        <v>44007</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8160,7 +8188,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8197,14 +8225,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 31304-2020</t>
+          <t>A 31306-2020</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
         <v>44012</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8217,7 +8245,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8254,14 +8282,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 31672-2020</t>
+          <t>A 31304-2020</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44014</v>
+        <v>44012</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8311,14 +8339,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 33238-2020</t>
+          <t>A 31672-2020</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44022</v>
+        <v>44014</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8331,7 +8359,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8368,14 +8396,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 33242-2020</t>
+          <t>A 33238-2020</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
         <v>44022</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8388,7 +8416,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8425,14 +8453,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 33241-2020</t>
+          <t>A 33242-2020</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
         <v>44022</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8445,7 +8473,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8482,14 +8510,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 35145-2020</t>
+          <t>A 33241-2020</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44040</v>
+        <v>44022</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8502,7 +8530,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.9</v>
+        <v>4.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8539,14 +8567,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 35956-2020</t>
+          <t>A 35145-2020</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44047</v>
+        <v>44040</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8559,7 +8587,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8596,14 +8624,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 36483-2020</t>
+          <t>A 35956-2020</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44050</v>
+        <v>44047</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8616,7 +8644,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8653,14 +8681,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 46693-2020</t>
+          <t>A 36483-2020</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44089</v>
+        <v>44050</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8673,7 +8701,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8710,14 +8738,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 48216-2020</t>
+          <t>A 46693-2020</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44102</v>
+        <v>44089</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8730,7 +8758,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8767,14 +8795,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 52988-2020</t>
+          <t>A 48216-2020</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44119</v>
+        <v>44102</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8787,7 +8815,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8824,14 +8852,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 53366-2020</t>
+          <t>A 52988-2020</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44123</v>
+        <v>44119</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8844,7 +8872,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8881,14 +8909,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 54649-2020</t>
+          <t>A 53366-2020</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44127</v>
+        <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8901,7 +8929,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8938,14 +8966,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 54654-2020</t>
+          <t>A 54649-2020</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
         <v>44127</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8958,7 +8986,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8995,14 +9023,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 58170-2020</t>
+          <t>A 54654-2020</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44144</v>
+        <v>44127</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9015,7 +9043,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9052,14 +9080,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 58165-2020</t>
+          <t>A 58170-2020</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9109,14 +9137,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 58184-2020</t>
+          <t>A 58165-2020</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
         <v>44144</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9129,7 +9157,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9166,14 +9194,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 61484-2020</t>
+          <t>A 58184-2020</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44158</v>
+        <v>44144</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9185,13 +9213,8 @@
           <t>LAHOLM</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9228,14 +9251,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 63120-2020</t>
+          <t>A 61484-2020</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44162</v>
+        <v>44158</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9247,8 +9270,13 @@
           <t>LAHOLM</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9285,14 +9313,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 64405-2020</t>
+          <t>A 63120-2020</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44168</v>
+        <v>44162</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9304,13 +9332,8 @@
           <t>LAHOLM</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>8.699999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9347,14 +9370,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 66222-2020</t>
+          <t>A 64405-2020</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9366,8 +9389,13 @@
           <t>LAHOLM</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>1.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9404,14 +9432,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 65924-2020</t>
+          <t>A 66222-2020</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
         <v>44175</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9423,13 +9451,8 @@
           <t>LAHOLM</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9466,14 +9489,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 66220-2020</t>
+          <t>A 65924-2020</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
         <v>44175</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9485,8 +9508,13 @@
           <t>LAHOLM</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9523,14 +9551,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 65963-2020</t>
+          <t>A 66220-2020</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9542,13 +9570,8 @@
           <t>LAHOLM</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9585,14 +9608,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 67089-2020</t>
+          <t>A 65963-2020</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44180</v>
+        <v>44175</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9604,8 +9627,13 @@
           <t>LAHOLM</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>19.3</v>
+        <v>0.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9642,14 +9670,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 67933-2020</t>
+          <t>A 67089-2020</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44182</v>
+        <v>44180</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9662,7 +9690,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.9</v>
+        <v>19.3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9699,14 +9727,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 223-2021</t>
+          <t>A 67933-2020</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44200</v>
+        <v>44182</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9719,7 +9747,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9756,14 +9784,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 230-2021</t>
+          <t>A 223-2021</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
         <v>44200</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9776,7 +9804,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9813,14 +9841,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 4423-2021</t>
+          <t>A 230-2021</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44224</v>
+        <v>44200</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9833,7 +9861,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9870,14 +9898,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 4677-2021</t>
+          <t>A 4423-2021</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9890,7 +9918,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9927,14 +9955,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 4674-2021</t>
+          <t>A 4677-2021</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
         <v>44225</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9984,14 +10012,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 4919-2021</t>
+          <t>A 4674-2021</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10004,7 +10032,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10041,14 +10069,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 5057-2021</t>
+          <t>A 4919-2021</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44228</v>
+        <v>44226</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10061,7 +10089,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.7</v>
+        <v>6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10098,14 +10126,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 6473-2021</t>
+          <t>A 5057-2021</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44235</v>
+        <v>44228</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10118,7 +10146,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10155,14 +10183,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 8468-2021</t>
+          <t>A 6473-2021</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44245</v>
+        <v>44235</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10175,7 +10203,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10212,14 +10240,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 8441-2021</t>
+          <t>A 8468-2021</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
         <v>44245</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10232,7 +10260,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10269,14 +10297,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 9223-2021</t>
+          <t>A 8441-2021</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44250</v>
+        <v>44245</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10289,7 +10317,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10326,14 +10354,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 10076-2021</t>
+          <t>A 9223-2021</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44256</v>
+        <v>44250</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10345,13 +10373,8 @@
           <t>LAHOLM</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10388,14 +10411,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 13486-2021</t>
+          <t>A 10076-2021</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44273</v>
+        <v>44256</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10407,8 +10430,13 @@
           <t>LAHOLM</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10445,14 +10473,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 13493-2021</t>
+          <t>A 13486-2021</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
         <v>44273</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10465,7 +10493,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10502,14 +10530,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 14633-2021</t>
+          <t>A 13493-2021</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44280</v>
+        <v>44273</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10522,7 +10550,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10559,14 +10587,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 19885-2021</t>
+          <t>A 14633-2021</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44312</v>
+        <v>44280</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10578,13 +10606,8 @@
           <t>LAHOLM</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10621,14 +10644,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 20987-2021</t>
+          <t>A 19885-2021</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44319</v>
+        <v>44312</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10640,8 +10663,13 @@
           <t>LAHOLM</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10678,14 +10706,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 23409-2021</t>
+          <t>A 20987-2021</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44333</v>
+        <v>44319</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10698,7 +10726,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10735,14 +10763,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 24292-2021</t>
+          <t>A 23409-2021</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44337</v>
+        <v>44333</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10755,7 +10783,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10792,14 +10820,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 24305-2021</t>
+          <t>A 24292-2021</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
         <v>44337</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10812,7 +10840,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10849,14 +10877,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 25601-2021</t>
+          <t>A 24305-2021</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44343</v>
+        <v>44337</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10906,14 +10934,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 25564-2021</t>
+          <t>A 25601-2021</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
         <v>44343</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10926,7 +10954,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10963,14 +10991,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 26446-2021</t>
+          <t>A 25564-2021</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44348</v>
+        <v>44343</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10983,7 +11011,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11020,14 +11048,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 26825-2021</t>
+          <t>A 26446-2021</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11040,7 +11068,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11077,14 +11105,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 38078-2021</t>
+          <t>A 26825-2021</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44404</v>
+        <v>44349</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11097,7 +11125,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11134,14 +11162,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 44188-2021</t>
+          <t>A 38078-2021</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44434</v>
+        <v>44404</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11154,7 +11182,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11191,14 +11219,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 47072-2021</t>
+          <t>A 44188-2021</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44446</v>
+        <v>44434</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11248,14 +11276,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 52094-2021</t>
+          <t>A 47072-2021</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44462</v>
+        <v>44446</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11268,7 +11296,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11305,14 +11333,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 53693-2021</t>
+          <t>A 52094-2021</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44469</v>
+        <v>44462</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11325,7 +11353,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11362,14 +11390,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 53941-2021</t>
+          <t>A 53693-2021</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
         <v>44469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11382,7 +11410,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11419,14 +11447,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 53598-2021</t>
+          <t>A 53941-2021</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
         <v>44469</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11439,7 +11467,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11476,14 +11504,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 57267-2021</t>
+          <t>A 53598-2021</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44483</v>
+        <v>44469</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11496,7 +11524,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11533,14 +11561,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 57327-2021</t>
+          <t>A 57267-2021</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
         <v>44483</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11553,7 +11581,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11590,14 +11618,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 57320-2021</t>
+          <t>A 57327-2021</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
         <v>44483</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11610,7 +11638,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>5.8</v>
+        <v>1.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11647,14 +11675,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 59429-2021</t>
+          <t>A 57320-2021</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44491</v>
+        <v>44483</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11667,7 +11695,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.9</v>
+        <v>5.8</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11704,14 +11732,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 61785-2021</t>
+          <t>A 59429-2021</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44501</v>
+        <v>44491</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11724,7 +11752,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11761,14 +11789,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 61711-2021</t>
+          <t>A 61785-2021</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
         <v>44501</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11781,7 +11809,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11818,14 +11846,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 65916-2021</t>
+          <t>A 61711-2021</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44517</v>
+        <v>44501</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11838,7 +11866,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11875,14 +11903,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 66395-2021</t>
+          <t>A 65916-2021</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44518</v>
+        <v>44517</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11895,7 +11923,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11932,14 +11960,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 67861-2021</t>
+          <t>A 66395-2021</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44525</v>
+        <v>44518</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11952,7 +11980,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11989,14 +12017,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 68846-2021</t>
+          <t>A 67861-2021</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44530</v>
+        <v>44525</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12009,7 +12037,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3.9</v>
+        <v>6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12046,14 +12074,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 73853-2021</t>
+          <t>A 68846-2021</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44553</v>
+        <v>44530</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12066,7 +12094,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.4</v>
+        <v>3.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12103,14 +12131,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 73894-2021</t>
+          <t>A 73853-2021</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
         <v>44553</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12123,7 +12151,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12160,14 +12188,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 1887-2022</t>
+          <t>A 73894-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44575</v>
+        <v>44553</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12180,7 +12208,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12217,14 +12245,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 4819-2022</t>
+          <t>A 1887-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44592</v>
+        <v>44575</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12237,7 +12265,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12274,14 +12302,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 5677-2022</t>
+          <t>A 4819-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44596</v>
+        <v>44592</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12294,7 +12322,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.2</v>
+        <v>2.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12331,14 +12359,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 6246-2022</t>
+          <t>A 5677-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44600</v>
+        <v>44596</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12351,7 +12379,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12388,14 +12416,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 6244-2022</t>
+          <t>A 6246-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
         <v>44600</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12408,7 +12436,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12445,14 +12473,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 6252-2022</t>
+          <t>A 6244-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
         <v>44600</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12465,7 +12493,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12502,14 +12530,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 6241-2022</t>
+          <t>A 6252-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
         <v>44600</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12522,7 +12550,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12559,14 +12587,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 6250-2022</t>
+          <t>A 6241-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
         <v>44600</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12579,7 +12607,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12616,14 +12644,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 10570-2022</t>
+          <t>A 6250-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44624</v>
+        <v>44600</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12635,13 +12663,8 @@
           <t>LAHOLM</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>5.6</v>
+        <v>0.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12678,14 +12701,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 15707-2022</t>
+          <t>A 10570-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44663</v>
+        <v>44624</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12697,8 +12720,13 @@
           <t>LAHOLM</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>9.6</v>
+        <v>5.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12735,14 +12763,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 17097-2022</t>
+          <t>A 15707-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44677</v>
+        <v>44663</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12755,7 +12783,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.4</v>
+        <v>9.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12792,14 +12820,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 17395-2022</t>
+          <t>A 17097-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44678</v>
+        <v>44677</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12812,7 +12840,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12849,14 +12877,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 20201-2022</t>
+          <t>A 17395-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44698</v>
+        <v>44678</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12868,13 +12896,8 @@
           <t>LAHOLM</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12911,14 +12934,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 20204-2022</t>
+          <t>A 20201-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
         <v>44698</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12936,7 +12959,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12973,14 +12996,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 26240-2022</t>
+          <t>A 20204-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44735</v>
+        <v>44698</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12992,8 +13015,13 @@
           <t>LAHOLM</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13030,14 +13058,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 26677-2022</t>
+          <t>A 26240-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44739</v>
+        <v>44735</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13050,7 +13078,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13087,14 +13115,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 28252-2022</t>
+          <t>A 26677-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44746</v>
+        <v>44739</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13107,7 +13135,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13144,14 +13172,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 31280-2022</t>
+          <t>A 28252-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44771</v>
+        <v>44746</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13164,7 +13192,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.4</v>
+        <v>4.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13201,14 +13229,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 31358-2022</t>
+          <t>A 31280-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44774</v>
+        <v>44771</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13221,7 +13249,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13258,14 +13286,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 31376-2022</t>
+          <t>A 31358-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
         <v>44774</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13278,7 +13306,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13315,14 +13343,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 34985-2022</t>
+          <t>A 31376-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44796</v>
+        <v>44774</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13335,7 +13363,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13372,14 +13400,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 35897-2022</t>
+          <t>A 34985-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44802</v>
+        <v>44796</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13392,7 +13420,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13429,14 +13457,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 37705-2022</t>
+          <t>A 35897-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44810</v>
+        <v>44802</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13449,7 +13477,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13486,14 +13514,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 45732-2022</t>
+          <t>A 37705-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44846</v>
+        <v>44810</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13506,7 +13534,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13543,14 +13571,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 47937-2022</t>
+          <t>A 45732-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44855</v>
+        <v>44846</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13563,7 +13591,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13600,14 +13628,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 50127-2022</t>
+          <t>A 47937-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44865</v>
+        <v>44855</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13619,13 +13647,8 @@
           <t>LAHOLM</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G224" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13662,14 +13685,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 50130-2022</t>
+          <t>A 50127-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13687,7 +13710,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13724,14 +13747,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 51515-2022</t>
+          <t>A 50130-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44869</v>
+        <v>44865</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13743,8 +13766,13 @@
           <t>LAHOLM</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13781,14 +13809,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 51517-2022</t>
+          <t>A 51515-2022</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
         <v>44869</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13801,7 +13829,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13838,14 +13866,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 51802-2022</t>
+          <t>A 51517-2022</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44872</v>
+        <v>44869</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13858,7 +13886,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13895,14 +13923,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 52055-2022</t>
+          <t>A 51802-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44873</v>
+        <v>44872</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13914,13 +13942,8 @@
           <t>LAHOLM</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G229" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13957,14 +13980,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 52056-2022</t>
+          <t>A 52055-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
         <v>44873</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13982,7 +14005,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14019,14 +14042,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 52779-2022</t>
+          <t>A 52056-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44875</v>
+        <v>44873</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14038,8 +14061,13 @@
           <t>LAHOLM</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G231" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14076,14 +14104,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 53462-2022</t>
+          <t>A 52779-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44879</v>
+        <v>44875</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14095,13 +14123,8 @@
           <t>LAHOLM</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G232" t="n">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14138,14 +14161,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 54802-2022</t>
+          <t>A 53462-2022</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44883</v>
+        <v>44879</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14159,11 +14182,11 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G233" t="n">
-        <v>4.4</v>
+        <v>11</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14200,14 +14223,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 54795-2022</t>
+          <t>A 54802-2022</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14225,7 +14248,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>20.3</v>
+        <v>4.4</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14262,14 +14285,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 55107-2022</t>
+          <t>A 54795-2022</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44886</v>
+        <v>44883</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14283,11 +14306,11 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.5</v>
+        <v>20.3</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14324,14 +14347,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 56453-2022</t>
+          <t>A 55107-2022</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44893</v>
+        <v>44886</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14343,8 +14366,13 @@
           <t>LAHOLM</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G236" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14381,14 +14409,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 57135-2022</t>
+          <t>A 56453-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44895</v>
+        <v>44893</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14401,7 +14429,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14438,14 +14466,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 60152-2022</t>
+          <t>A 57135-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44902</v>
+        <v>44895</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14458,7 +14486,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>7.8</v>
+        <v>4</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14495,14 +14523,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 60149-2022</t>
+          <t>A 60152-2022</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14515,7 +14543,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2.8</v>
+        <v>7.8</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14552,14 +14580,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 59921-2022</t>
+          <t>A 60149-2022</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44909</v>
+        <v>44902</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14572,7 +14600,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14609,14 +14637,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 60021-2022</t>
+          <t>A 59921-2022</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
         <v>44909</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14629,7 +14657,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14666,14 +14694,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 263-2023</t>
+          <t>A 60021-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44928</v>
+        <v>44909</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14685,13 +14713,8 @@
           <t>LAHOLM</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G242" t="n">
-        <v>12.2</v>
+        <v>2.6</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14728,14 +14751,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 264-2023</t>
+          <t>A 263-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
         <v>44928</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14747,8 +14770,13 @@
           <t>LAHOLM</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G243" t="n">
-        <v>6.5</v>
+        <v>12.2</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14785,14 +14813,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 659-2023</t>
+          <t>A 264-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44930</v>
+        <v>44928</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14805,7 +14833,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.7</v>
+        <v>6.5</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14842,14 +14870,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 620-2023</t>
+          <t>A 659-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
         <v>44930</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14862,7 +14890,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14899,14 +14927,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 2626-2023</t>
+          <t>A 620-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44942</v>
+        <v>44930</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14919,7 +14947,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14956,14 +14984,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 2548-2023</t>
+          <t>A 2626-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44943</v>
+        <v>44942</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14975,13 +15003,8 @@
           <t>LAHOLM</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G247" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15018,14 +15041,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 2550-2023</t>
+          <t>A 2548-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
         <v>44943</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15043,7 +15066,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>7.6</v>
+        <v>0.6</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15080,14 +15103,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 2552-2023</t>
+          <t>A 2550-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
         <v>44943</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15105,7 +15128,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>5.5</v>
+        <v>7.6</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15142,14 +15165,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 3427-2023</t>
+          <t>A 2552-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44949</v>
+        <v>44943</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15161,8 +15184,13 @@
           <t>LAHOLM</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G250" t="n">
-        <v>1.6</v>
+        <v>5.5</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15199,14 +15227,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 3446-2023</t>
+          <t>A 3427-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
         <v>44949</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15219,7 +15247,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15256,14 +15284,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 3821-2023</t>
+          <t>A 3446-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44951</v>
+        <v>44949</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15276,7 +15304,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15313,14 +15341,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 6191-2023</t>
+          <t>A 3821-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44964</v>
+        <v>44951</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15333,7 +15361,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15370,14 +15398,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 8008-2023</t>
+          <t>A 6191-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44973</v>
+        <v>44964</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15389,13 +15417,8 @@
           <t>LAHOLM</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G254" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15432,14 +15455,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 7724-2023</t>
+          <t>A 8008-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15451,8 +15474,13 @@
           <t>LAHOLM</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G255" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15489,14 +15517,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 8011-2023</t>
+          <t>A 7724-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15508,13 +15536,8 @@
           <t>LAHOLM</t>
         </is>
       </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G256" t="n">
-        <v>5.8</v>
+        <v>4</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15551,14 +15574,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 8017-2023</t>
+          <t>A 8011-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15570,8 +15593,13 @@
           <t>LAHOLM</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G257" t="n">
-        <v>4.6</v>
+        <v>5.8</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15608,14 +15636,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 8724-2023</t>
+          <t>A 8017-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44978</v>
+        <v>44973</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15628,7 +15656,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15665,14 +15693,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 13052-2023</t>
+          <t>A 8724-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45002</v>
+        <v>44978</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15685,7 +15713,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15722,14 +15750,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 13092-2023</t>
+          <t>A 13052-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
         <v>45002</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15741,13 +15769,8 @@
           <t>LAHOLM</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G260" t="n">
-        <v>4.7</v>
+        <v>1.7</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15784,14 +15807,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 13504-2023</t>
+          <t>A 13092-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45006</v>
+        <v>45002</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15803,8 +15826,13 @@
           <t>LAHOLM</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G261" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15841,14 +15869,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 15587-2023</t>
+          <t>A 13504-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45019</v>
+        <v>45006</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15861,7 +15889,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15898,14 +15926,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 15237-2023</t>
+          <t>A 15587-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
         <v>45019</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15918,7 +15946,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15955,14 +15983,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 15428-2023</t>
+          <t>A 15237-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45020</v>
+        <v>45019</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15975,7 +16003,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16012,14 +16040,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 15642-2023</t>
+          <t>A 15428-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
         <v>45020</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16032,7 +16060,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16069,14 +16097,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 15640-2023</t>
+          <t>A 15642-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
         <v>45020</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16089,7 +16117,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16126,14 +16154,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 15837-2023</t>
+          <t>A 15640-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45022</v>
+        <v>45020</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16145,13 +16173,8 @@
           <t>LAHOLM</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G267" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16188,14 +16211,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 16909-2023</t>
+          <t>A 15837-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45028</v>
+        <v>45022</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16207,8 +16230,13 @@
           <t>LAHOLM</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G268" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16245,14 +16273,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 16906-2023</t>
+          <t>A 16909-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
         <v>45028</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16265,7 +16293,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16302,14 +16330,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 16915-2023</t>
+          <t>A 16906-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
         <v>45028</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16322,7 +16350,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16359,14 +16387,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 17227-2023</t>
+          <t>A 16915-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45035</v>
+        <v>45028</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16379,7 +16407,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16416,14 +16444,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 17510-2023</t>
+          <t>A 17227-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45036</v>
+        <v>45035</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16435,13 +16463,8 @@
           <t>LAHOLM</t>
         </is>
       </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G272" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16478,14 +16501,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 19668-2023</t>
+          <t>A 17510-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45051</v>
+        <v>45036</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16497,8 +16520,13 @@
           <t>LAHOLM</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G273" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16535,14 +16563,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 20562-2023</t>
+          <t>A 19668-2023</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45057</v>
+        <v>45051</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16555,7 +16583,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16592,14 +16620,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 21277-2023</t>
+          <t>A 20562-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16612,7 +16640,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16649,14 +16677,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 25591-2023</t>
+          <t>A 21277-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45089</v>
+        <v>45062</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16668,13 +16696,8 @@
           <t>LAHOLM</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G276" t="n">
-        <v>5.7</v>
+        <v>3</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16711,14 +16734,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 25597-2023</t>
+          <t>A 25591-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
         <v>45089</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16736,7 +16759,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.9</v>
+        <v>5.7</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16773,14 +16796,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 25516-2023</t>
+          <t>A 25597-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
         <v>45089</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16798,7 +16821,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>6.4</v>
+        <v>1.9</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16835,14 +16858,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 25593-2023</t>
+          <t>A 25516-2023</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
         <v>45089</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16860,7 +16883,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.3</v>
+        <v>6.4</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16897,14 +16920,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 25592-2023</t>
+          <t>A 25593-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
         <v>45089</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16922,7 +16945,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16959,14 +16982,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 26794-2023</t>
+          <t>A 25592-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45093</v>
+        <v>45089</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16978,8 +17001,13 @@
           <t>LAHOLM</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G281" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17016,14 +17044,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 26798-2023</t>
+          <t>A 26794-2023</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17036,7 +17064,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17073,14 +17101,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 27224-2023</t>
+          <t>A 26798-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45096</v>
+        <v>45093</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17093,7 +17121,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17130,14 +17158,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 27226-2023</t>
+          <t>A 27224-2023</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
         <v>45096</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17150,7 +17178,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17187,14 +17215,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 27549-2023</t>
+          <t>A 27226-2023</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45097</v>
+        <v>45096</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17207,7 +17235,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17244,14 +17272,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 27726-2023</t>
+          <t>A 27549-2023</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17264,7 +17292,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17301,14 +17329,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 27722-2023</t>
+          <t>A 27726-2023</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
         <v>45098</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17321,7 +17349,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17358,14 +17386,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 28789-2023</t>
+          <t>A 27722-2023</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17378,7 +17406,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>10.8</v>
+        <v>1</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17415,14 +17443,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 29527-2023</t>
+          <t>A 28789-2023</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17435,7 +17463,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>1.1</v>
+        <v>10.8</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17472,14 +17500,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 30798-2023</t>
+          <t>A 29527-2023</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45112</v>
+        <v>45106</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17492,7 +17520,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17529,14 +17557,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 31619-2023</t>
+          <t>A 30798-2023</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45117</v>
+        <v>45112</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17548,13 +17576,8 @@
           <t>LAHOLM</t>
         </is>
       </c>
-      <c r="F291" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G291" t="n">
-        <v>15.9</v>
+        <v>0.5</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17591,14 +17614,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 31937-2023</t>
+          <t>A 31619-2023</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45119</v>
+        <v>45117</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17610,8 +17633,13 @@
           <t>LAHOLM</t>
         </is>
       </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G292" t="n">
-        <v>12.9</v>
+        <v>15.9</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17648,14 +17676,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 32554-2023</t>
+          <t>A 31937-2023</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45121</v>
+        <v>45119</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17668,7 +17696,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>2.4</v>
+        <v>12.9</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17705,14 +17733,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 32772-2023</t>
+          <t>A 32554-2023</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45123</v>
+        <v>45121</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17725,7 +17753,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17762,14 +17790,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 33163-2023</t>
+          <t>A 32772-2023</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45126</v>
+        <v>45123</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17782,7 +17810,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17819,14 +17847,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 33578-2023</t>
+          <t>A 33163-2023</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45131</v>
+        <v>45126</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17839,7 +17867,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17876,14 +17904,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 33600-2023</t>
+          <t>A 33578-2023</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45132</v>
+        <v>45131</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17896,7 +17924,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17933,14 +17961,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 33595-2023</t>
+          <t>A 33600-2023</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
         <v>45132</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17953,7 +17981,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>6.4</v>
+        <v>1.3</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17990,14 +18018,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 33596-2023</t>
+          <t>A 33595-2023</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
         <v>45132</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18010,7 +18038,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>8.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18047,14 +18075,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 34046-2023</t>
+          <t>A 33596-2023</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45135</v>
+        <v>45132</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18067,7 +18095,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>1.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18104,14 +18132,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 35423-2023</t>
+          <t>A 34046-2023</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45146</v>
+        <v>45135</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18124,7 +18152,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18161,14 +18189,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 35425-2023</t>
+          <t>A 35423-2023</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
         <v>45146</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18218,14 +18246,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 35428-2023</t>
+          <t>A 35425-2023</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
         <v>45146</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18238,7 +18266,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18275,14 +18303,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 36484-2023</t>
+          <t>A 35428-2023</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45152</v>
+        <v>45146</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18295,7 +18323,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18332,14 +18360,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 37121-2023</t>
+          <t>A 36484-2023</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45155</v>
+        <v>45152</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18352,7 +18380,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18389,14 +18417,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 37557-2023</t>
+          <t>A 37121-2023</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45159</v>
+        <v>45155</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18409,7 +18437,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18446,14 +18474,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 37667-2023</t>
+          <t>A 37557-2023</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
         <v>45159</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18503,14 +18531,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 41289-2023</t>
+          <t>A 37667-2023</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45174</v>
+        <v>45159</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18523,7 +18551,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18560,14 +18588,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 42455-2023</t>
+          <t>A 41289-2023</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45180</v>
+        <v>45174</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18579,13 +18607,8 @@
           <t>LAHOLM</t>
         </is>
       </c>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G309" t="n">
-        <v>3.6</v>
+        <v>0.4</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18622,116 +18645,178 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
+          <t>A 42455-2023</t>
+        </is>
+      </c>
+      <c r="B310" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C310" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>LAHOLM</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G310" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="n">
+        <v>0</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0</v>
+      </c>
+      <c r="L310" t="n">
+        <v>0</v>
+      </c>
+      <c r="M310" t="n">
+        <v>0</v>
+      </c>
+      <c r="N310" t="n">
+        <v>0</v>
+      </c>
+      <c r="O310" t="n">
+        <v>0</v>
+      </c>
+      <c r="P310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>0</v>
+      </c>
+      <c r="R310" s="2" t="inlineStr"/>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="A311" t="inlineStr">
+        <is>
           <t>A 42605-2023</t>
         </is>
       </c>
-      <c r="B310" s="1" t="n">
+      <c r="B311" s="1" t="n">
         <v>45181</v>
       </c>
-      <c r="C310" s="1" t="n">
-        <v>45205</v>
-      </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>HALLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E310" t="inlineStr">
-        <is>
-          <t>LAHOLM</t>
-        </is>
-      </c>
-      <c r="G310" t="n">
+      <c r="C311" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>LAHOLM</t>
+        </is>
+      </c>
+      <c r="G311" t="n">
         <v>0.7</v>
       </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
-      <c r="J310" t="n">
-        <v>0</v>
-      </c>
-      <c r="K310" t="n">
-        <v>0</v>
-      </c>
-      <c r="L310" t="n">
-        <v>0</v>
-      </c>
-      <c r="M310" t="n">
-        <v>0</v>
-      </c>
-      <c r="N310" t="n">
-        <v>0</v>
-      </c>
-      <c r="O310" t="n">
-        <v>0</v>
-      </c>
-      <c r="P310" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q310" t="n">
-        <v>0</v>
-      </c>
-      <c r="R310" s="2" t="inlineStr"/>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
+      <c r="H311" t="n">
+        <v>0</v>
+      </c>
+      <c r="I311" t="n">
+        <v>0</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0</v>
+      </c>
+      <c r="L311" t="n">
+        <v>0</v>
+      </c>
+      <c r="M311" t="n">
+        <v>0</v>
+      </c>
+      <c r="N311" t="n">
+        <v>0</v>
+      </c>
+      <c r="O311" t="n">
+        <v>0</v>
+      </c>
+      <c r="P311" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>0</v>
+      </c>
+      <c r="R311" s="2" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
         <is>
           <t>A 46828-2023</t>
         </is>
       </c>
-      <c r="B311" s="1" t="n">
+      <c r="B312" s="1" t="n">
         <v>45199</v>
       </c>
-      <c r="C311" s="1" t="n">
-        <v>45205</v>
-      </c>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>HALLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E311" t="inlineStr">
-        <is>
-          <t>LAHOLM</t>
-        </is>
-      </c>
-      <c r="G311" t="n">
+      <c r="C312" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>LAHOLM</t>
+        </is>
+      </c>
+      <c r="G312" t="n">
         <v>9.5</v>
       </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
-      <c r="J311" t="n">
-        <v>0</v>
-      </c>
-      <c r="K311" t="n">
-        <v>0</v>
-      </c>
-      <c r="L311" t="n">
-        <v>0</v>
-      </c>
-      <c r="M311" t="n">
-        <v>0</v>
-      </c>
-      <c r="N311" t="n">
-        <v>0</v>
-      </c>
-      <c r="O311" t="n">
-        <v>0</v>
-      </c>
-      <c r="P311" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q311" t="n">
-        <v>0</v>
-      </c>
-      <c r="R311" s="2" t="inlineStr"/>
+      <c r="H312" t="n">
+        <v>0</v>
+      </c>
+      <c r="I312" t="n">
+        <v>0</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0</v>
+      </c>
+      <c r="L312" t="n">
+        <v>0</v>
+      </c>
+      <c r="M312" t="n">
+        <v>0</v>
+      </c>
+      <c r="N312" t="n">
+        <v>0</v>
+      </c>
+      <c r="O312" t="n">
+        <v>0</v>
+      </c>
+      <c r="P312" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q312" t="n">
+        <v>0</v>
+      </c>
+      <c r="R312" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt LAHOLM.xlsx
+++ b/Översikt LAHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>43440</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43353</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43423</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43439</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43440</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>43903</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44624</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44726</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>45159</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>45205</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>43325</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>43329</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>43353</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43384</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43384</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43385</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43385</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>43385</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>43404</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43404</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>43411</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>43411</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>43416</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43425</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43430</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43433</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43440</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43446</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43447</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43475</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43489</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43493</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43495</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43501</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43517</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43521</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43521</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43521</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43525</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43539</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43543</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43565</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43570</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43578</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43578</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43578</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43580</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43587</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43592</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43592</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43598</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43613</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>43620</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>43627</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43661</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43682</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43685</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43685</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43696</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43698</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43703</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43705</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43710</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43718</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43720</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43724</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43741</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43746</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43752</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43754</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43760</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43762</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43773</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43781</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43781</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43781</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43783</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43783</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43803</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43811</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
         <v>43817</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>43817</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>43817</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
         <v>43837</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         <v>43840</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         <v>43852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         <v>43857</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6579,7 +6579,7 @@
         <v>43858</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>43860</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43860</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43860</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43861</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43873</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43878</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43879</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43879</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>43882</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>43894</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>43895</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>43896</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>43912</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>43913</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43918</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>43922</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
         <v>43950</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>43951</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>43956</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>43959</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>43963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>43965</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>43965</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43971</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43985</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43990</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>44005</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>44007</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>44012</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>44012</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>44014</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44022</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44022</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>44022</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>44040</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>44047</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44050</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44089</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>44102</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>44119</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>44123</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>44127</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>44127</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9087,7 +9087,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>44144</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>44144</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9258,7 +9258,7 @@
         <v>44158</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>44162</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>44168</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44175</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44175</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44175</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>44180</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>44182</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44200</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>44200</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>44224</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>44225</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>44225</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>44226</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>44228</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>44235</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>44245</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>44245</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44250</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>44256</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>44273</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>44273</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>44280</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44312</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>44319</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>44333</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>44337</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>44337</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>44343</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>44343</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>44348</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>44349</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>44404</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>44434</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>44446</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>44462</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
         <v>44469</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11454,7 +11454,7 @@
         <v>44469</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>44469</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>44483</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44483</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44483</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44491</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44501</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>44501</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>44517</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>44518</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>44525</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44530</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>44553</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44553</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>44575</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>44592</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>44596</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>44600</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>44600</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>44600</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>44600</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>44600</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>44624</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>44663</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>44677</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>44678</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12941,7 +12941,7 @@
         <v>44698</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>44698</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>44735</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>44739</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>44746</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>44771</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>44774</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44774</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44796</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44802</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44810</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44846</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44855</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44865</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44869</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44869</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44872</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44873</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>44873</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44875</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44879</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44883</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>44883</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44886</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44893</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44895</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44902</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44909</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>44909</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44928</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44928</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44930</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         <v>44930</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>44942</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>44943</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>44943</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>44943</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44949</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>44949</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>44951</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44964</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44973</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>44973</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>44973</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44973</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>44978</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>45002</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>45002</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>45006</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>45019</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>45019</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>45020</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>45020</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>45020</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>45022</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>45028</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>45028</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>45028</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>45035</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>45036</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>45051</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>45057</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>45062</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>45089</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>45089</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>45089</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>45089</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>45089</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17108,7 +17108,7 @@
         <v>45093</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>45096</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17222,7 +17222,7 @@
         <v>45096</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17279,7 +17279,7 @@
         <v>45097</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17336,7 +17336,7 @@
         <v>45098</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>45098</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>45104</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>45106</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>45112</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>45117</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>45119</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>45121</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>45123</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>45126</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>45131</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>45132</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>45132</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>45132</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>45135</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>45146</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>45146</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>45146</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>45152</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>45155</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>45159</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>45159</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>45174</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>45180</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>45181</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>45199</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
